--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BBF6A8-902A-4D23-96B8-8CA4E06425A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6A0434-3E2A-4B87-B6F7-2B9EF5DE296D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="2" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
   <sheets>
     <sheet name="The_Marathon" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="171">
   <si>
     <t>Az eszközök interfészein szereplő IP címeket szemléltető táblázat</t>
   </si>
@@ -507,6 +507,39 @@
   </si>
   <si>
     <t>SW1 -&gt; Aljzatok</t>
+  </si>
+  <si>
+    <t>Vlan64</t>
+  </si>
+  <si>
+    <t>Router és Layer 3-as switch kapcsolata</t>
+  </si>
+  <si>
+    <t>Layer 3-as és Layer 2-es switch kapcsolata</t>
+  </si>
+  <si>
+    <t>Wi-Fi hozzáférési pont és Layer-as switch kapcsolata</t>
+  </si>
+  <si>
+    <t>Layer 3-as switchek kapcsolata</t>
+  </si>
+  <si>
+    <t>Wi-Fi hozzáférési pont és Layer 3-as switch kapcsolata</t>
+  </si>
+  <si>
+    <t>DHCP szerver és switch kapcsolata</t>
+  </si>
+  <si>
+    <t>DNS, AD szerver és switch kapcsolata</t>
+  </si>
+  <si>
+    <t>DHCP/WEB szerver és switch kapcsolata</t>
+  </si>
+  <si>
+    <t>Nyomtató eszközök és switch kapcsolata</t>
+  </si>
+  <si>
+    <t>Számítógép kliensek és switch kapcsolata</t>
   </si>
 </sst>
 </file>
@@ -587,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -851,34 +884,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1074,11 +1079,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1134,26 +1204,73 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,26 +1327,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1546,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
-  <dimension ref="B2:Q64"/>
+  <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,49 +1677,47 @@
     <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="15" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="K3" s="51" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
+      <c r="K3" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-      <c r="O3" s="39" t="s">
+      <c r="L3" s="73"/>
+      <c r="M3" s="74"/>
+      <c r="O3" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="44"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="77"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -1642,17 +1753,17 @@
       <c r="M5" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="Q5" s="30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1680,17 +1791,17 @@
       <c r="K6" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
-    </row>
-    <row r="7" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="33"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1715,20 +1826,20 @@
       <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="58" t="s">
         <v>95</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1753,13 +1864,15 @@
       <c r="I8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="57"/>
+      <c r="M8" s="42" t="s">
+        <v>161</v>
+      </c>
       <c r="O8" s="14"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="19"/>
@@ -1792,13 +1905,15 @@
       <c r="K9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="M9" s="57"/>
+      <c r="M9" s="42" t="s">
+        <v>161</v>
+      </c>
       <c r="O9" s="15"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="38"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35"/>
     </row>
     <row r="10" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
@@ -1828,10 +1943,12 @@
       <c r="K10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="57"/>
+      <c r="M10" s="45" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
@@ -1861,10 +1978,12 @@
       <c r="K11" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="57"/>
+      <c r="M11" s="45" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
@@ -1894,10 +2013,12 @@
       <c r="K12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="M12" s="57"/>
+      <c r="M12" s="45" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1927,10 +2048,12 @@
       <c r="K13" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="M13" s="57"/>
+      <c r="M13" s="45" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
@@ -1960,10 +2083,12 @@
       <c r="K14" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="57"/>
+      <c r="M14" s="46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
@@ -1993,10 +2118,12 @@
       <c r="K15" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M15" s="57"/>
+      <c r="M15" s="46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
@@ -2026,10 +2153,12 @@
       <c r="K16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="57"/>
+      <c r="M16" s="46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -2059,10 +2188,12 @@
       <c r="K17" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="57"/>
+      <c r="M17" s="46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -2092,10 +2223,12 @@
       <c r="K18" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="57"/>
+      <c r="M18" s="46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
@@ -2125,10 +2258,12 @@
       <c r="K19" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="57"/>
+      <c r="M19" s="46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
@@ -2158,10 +2293,12 @@
       <c r="K20" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="57"/>
+      <c r="M20" s="46" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
@@ -2191,10 +2328,12 @@
       <c r="K21" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="57"/>
+      <c r="M21" s="46" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -2224,10 +2363,12 @@
       <c r="K22" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="M22" s="57"/>
+      <c r="M22" s="46" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
@@ -2257,10 +2398,12 @@
       <c r="K23" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M23" s="57"/>
+      <c r="M23" s="46" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
@@ -2290,10 +2433,12 @@
       <c r="K24" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="M24" s="58"/>
+      <c r="M24" s="46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
@@ -2323,10 +2468,12 @@
       <c r="K25" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="59" t="s">
+      <c r="L25" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="57"/>
+      <c r="M25" s="46" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
@@ -2356,10 +2503,12 @@
       <c r="K26" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L26" s="59" t="s">
+      <c r="L26" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="60"/>
+      <c r="M26" s="46" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
@@ -2389,10 +2538,12 @@
       <c r="K27" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="M27" s="60"/>
+      <c r="M27" s="46" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
@@ -2422,10 +2573,12 @@
       <c r="K28" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="M28" s="60"/>
+      <c r="M28" s="46" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
@@ -2455,10 +2608,12 @@
       <c r="K29" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="M29" s="60"/>
+      <c r="M29" s="46" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
@@ -2488,10 +2643,12 @@
       <c r="K30" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="L30" s="59"/>
-      <c r="M30" s="60"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="36"/>
+      <c r="M30" s="46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>71</v>
       </c>
@@ -2516,13 +2673,15 @@
       <c r="I31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="22" t="s">
+      <c r="K31" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="L31" s="59"/>
-      <c r="M31" s="60"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="37"/>
+      <c r="M31" s="48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>72</v>
       </c>
@@ -2547,9 +2706,9 @@
       <c r="I32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="60"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="59"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
@@ -2576,9 +2735,9 @@
       <c r="I33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="60"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="59"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
@@ -2605,9 +2764,9 @@
       <c r="I34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="60"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="59"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
@@ -2634,9 +2793,9 @@
       <c r="I35" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="60"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="59"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
@@ -2663,352 +2822,351 @@
       <c r="I36" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="60"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="59"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="60"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="59"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="60"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="60"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="59"/>
+    </row>
+    <row r="39" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="59"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="11"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="60"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="59"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="11"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="60"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="59"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="11"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="60"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="59"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="11"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="60"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="59"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="11"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="60"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="11"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="60"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="11"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="60"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="11"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="60"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="11"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="60"/>
-    </row>
-    <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="11"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="61"/>
-    </row>
-    <row r="50" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="11"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="54"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="54"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="11"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="14"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="11"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="11"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="14"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="11"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="14"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="11"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="14"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="11"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="11"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="56"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="14"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="11"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="14"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="11"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="14"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="11"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="11"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="14"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="11"/>
-    </row>
-    <row r="63" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="15"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="17"/>
-    </row>
-    <row r="64" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="57"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="O3:Q4"/>
@@ -3025,7 +3183,7 @@
   <dimension ref="C2:J64"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,26 +3199,26 @@
   <sheetData>
     <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="3:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -3679,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
-  <dimension ref="B2:M32"/>
+  <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3694,41 +3852,51 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="30.7109375" customWidth="1"/>
+    <col min="11" max="12" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="K3" s="51" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68"/>
+      <c r="K3" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-    </row>
-    <row r="5" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
+      <c r="O3" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="65"/>
+    </row>
+    <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3753,17 +3921,26 @@
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="50" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3788,17 +3965,20 @@
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="33"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
@@ -3826,12 +4006,17 @@
       <c r="K7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="68"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
@@ -3856,15 +4041,20 @@
       <c r="I8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="M8" s="67"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
@@ -3892,12 +4082,17 @@
       <c r="K9" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="M9" s="57"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35"/>
+    </row>
+    <row r="10" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
@@ -3925,12 +4120,14 @@
       <c r="K10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="M10" s="57"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
@@ -3958,12 +4155,14 @@
       <c r="K11" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="57"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
@@ -3983,7 +4182,7 @@
         <v>89</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>50</v>
@@ -3991,12 +4190,14 @@
       <c r="K12" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="M12" s="57"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>28</v>
       </c>
@@ -4024,12 +4225,14 @@
       <c r="K13" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="M13" s="57"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
@@ -4057,12 +4260,14 @@
       <c r="K14" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="M14" s="57"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>28</v>
       </c>
@@ -4087,15 +4292,17 @@
       <c r="I15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="M15" s="57"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>71</v>
       </c>
@@ -4120,9 +4327,9 @@
       <c r="I16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="57"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -4149,18 +4356,18 @@
       <c r="I17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="57"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="38" t="s">
         <v>138</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -4169,7 +4376,7 @@
       <c r="F18" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="10" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -4178,18 +4385,18 @@
       <c r="I18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="57"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="38" t="s">
         <v>139</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -4198,7 +4405,7 @@
       <c r="F19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="7" t="s">
         <v>89</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -4207,9 +4414,9 @@
       <c r="I19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="57"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
@@ -4219,7 +4426,7 @@
         <v>142</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>46</v>
@@ -4236,95 +4443,96 @@
       <c r="I20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="57"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="37" t="s">
+      <c r="D21" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="34" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="57"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K22" s="22"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="57"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K23" s="22"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="57"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K24" s="22"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="58"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K25" s="22"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="57"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K26" s="22"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="60"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K27" s="22"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="60"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K28" s="22"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="60"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K29" s="22"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="60"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K30" s="22"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="60"/>
-    </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="32"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="61"/>
-    </row>
-    <row r="32" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="K3:M4"/>
+    <mergeCell ref="O3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6A0434-3E2A-4B87-B6F7-2B9EF5DE296D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683FA6D9-8429-4D49-9399-AA09ABAAF5CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
   <sheets>
     <sheet name="The_Marathon" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="178">
   <si>
     <t>Az eszközök interfészein szereplő IP címeket szemléltető táblázat</t>
   </si>
@@ -458,12 +458,6 @@
     <t>Port 0</t>
   </si>
   <si>
-    <t>10.10.66.254</t>
-  </si>
-  <si>
-    <t>10.10.66.253</t>
-  </si>
-  <si>
     <t>Gig1/0/24 -&gt; Port 0</t>
   </si>
   <si>
@@ -540,6 +534,33 @@
   </si>
   <si>
     <t>Számítógép kliensek és switch kapcsolata</t>
+  </si>
+  <si>
+    <t>The_Coleton</t>
+  </si>
+  <si>
+    <t>buzsak20</t>
+  </si>
+  <si>
+    <t>zandras</t>
+  </si>
+  <si>
+    <t>kkrisi</t>
+  </si>
+  <si>
+    <t>Titok2023</t>
+  </si>
+  <si>
+    <t>The_Marathon</t>
+  </si>
+  <si>
+    <t>10.30.66.253</t>
+  </si>
+  <si>
+    <t>10.30.66.254</t>
+  </si>
+  <si>
+    <t>The_Blesston</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1205,11 +1226,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1218,17 +1237,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1242,7 +1255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,24 +1285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1344,6 +1338,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1661,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,47 +1691,47 @@
     <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="15.7109375" customWidth="1"/>
+    <col min="15" max="17" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="K3" s="72" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="K3" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
-      <c r="O3" s="60" t="s">
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
+      <c r="O3" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="65"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -1753,13 +1767,13 @@
       <c r="M5" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="28" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1791,15 +1805,21 @@
       <c r="K6" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="33"/>
+      <c r="O6" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -1829,17 +1849,23 @@
       <c r="K7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1867,17 +1893,23 @@
       <c r="K8" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="M8" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1905,17 +1937,17 @@
       <c r="K9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="M9" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="O9" s="50"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
@@ -1943,11 +1975,11 @@
       <c r="K10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="45" t="s">
-        <v>163</v>
+      <c r="M10" s="39" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -1978,11 +2010,11 @@
       <c r="K11" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="M11" s="45" t="s">
-        <v>163</v>
+      <c r="M11" s="39" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
@@ -2013,11 +2045,11 @@
       <c r="K12" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="M12" s="45" t="s">
-        <v>163</v>
+      <c r="M12" s="39" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
@@ -2048,11 +2080,11 @@
       <c r="K13" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="M13" s="45" t="s">
-        <v>163</v>
+      <c r="M13" s="39" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
@@ -2083,11 +2115,11 @@
       <c r="K14" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="46" t="s">
-        <v>164</v>
+      <c r="M14" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
@@ -2118,11 +2150,11 @@
       <c r="K15" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="M15" s="46" t="s">
-        <v>164</v>
+      <c r="M15" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -2153,11 +2185,11 @@
       <c r="K16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="46" t="s">
-        <v>164</v>
+      <c r="M16" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -2188,11 +2220,11 @@
       <c r="K17" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="46" t="s">
-        <v>164</v>
+      <c r="M17" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -2223,11 +2255,11 @@
       <c r="K18" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="46" t="s">
-        <v>164</v>
+      <c r="M18" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -2258,11 +2290,11 @@
       <c r="K19" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="46" t="s">
-        <v>164</v>
+      <c r="M19" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -2293,11 +2325,11 @@
       <c r="K20" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="46" t="s">
-        <v>162</v>
+      <c r="M20" s="40" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -2328,11 +2360,11 @@
       <c r="K21" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="46" t="s">
-        <v>162</v>
+      <c r="M21" s="40" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -2363,11 +2395,11 @@
       <c r="K22" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="M22" s="46" t="s">
-        <v>162</v>
+      <c r="M22" s="40" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
@@ -2398,11 +2430,11 @@
       <c r="K23" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="M23" s="46" t="s">
-        <v>162</v>
+      <c r="M23" s="40" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
@@ -2433,11 +2465,11 @@
       <c r="K24" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="M24" s="46" t="s">
-        <v>164</v>
+      <c r="M24" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -2468,11 +2500,11 @@
       <c r="K25" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="L25" s="36" t="s">
+      <c r="L25" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="46" t="s">
-        <v>164</v>
+      <c r="M25" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
@@ -2503,11 +2535,11 @@
       <c r="K26" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L26" s="36" t="s">
+      <c r="L26" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="46" t="s">
-        <v>167</v>
+      <c r="M26" s="40" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
@@ -2538,11 +2570,11 @@
       <c r="K27" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="L27" s="36" t="s">
+      <c r="L27" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="M27" s="46" t="s">
-        <v>168</v>
+      <c r="M27" s="40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -2573,11 +2605,11 @@
       <c r="K28" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="M28" s="46" t="s">
-        <v>167</v>
+      <c r="M28" s="40" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -2608,11 +2640,11 @@
       <c r="K29" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="M29" s="46" t="s">
-        <v>168</v>
+      <c r="M29" s="40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
@@ -2641,11 +2673,11 @@
         <v>44</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="36"/>
-      <c r="M30" s="46" t="s">
-        <v>169</v>
+        <v>156</v>
+      </c>
+      <c r="L30" s="74"/>
+      <c r="M30" s="40" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2673,12 +2705,12 @@
       <c r="I31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="L31" s="37"/>
-      <c r="M31" s="48" t="s">
-        <v>170</v>
+      <c r="K31" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="L31" s="78"/>
+      <c r="M31" s="41" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2706,9 +2738,9 @@
       <c r="I32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="59"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="52"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
@@ -2735,9 +2767,9 @@
       <c r="I33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="59"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="52"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
@@ -2764,9 +2796,9 @@
       <c r="I34" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="59"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="52"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
@@ -2793,9 +2825,9 @@
       <c r="I35" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="59"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="52"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
@@ -2822,41 +2854,41 @@
       <c r="I36" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="59"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="52"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="H37" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="59"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="52"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="34" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="16" t="s">
@@ -2880,292 +2912,292 @@
       <c r="I38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="59"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="52"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="56"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="59"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="49"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="52"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="54"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="59"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="52"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="54"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="59"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="52"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="54"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="59"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="52"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="54"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="59"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="52"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="54"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="54"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="54"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="54"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="54"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="54"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="54"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="54"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="49"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="57"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="49"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="57"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="57"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="57"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3180,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A484A0-15AF-44A1-BE8B-ECFED38A64CF}">
-  <dimension ref="C2:J64"/>
+  <dimension ref="C2:W64"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,32 +3227,67 @@
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="66" t="s">
+    <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
-    </row>
-    <row r="5" spans="3:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="L3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="55"/>
+      <c r="U3" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" s="66"/>
+      <c r="W3" s="67"/>
+    </row>
+    <row r="4" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="58"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="70"/>
+    </row>
+    <row r="5" spans="3:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3245,8 +3312,41 @@
       <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -3255,8 +3355,27 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5"/>
+      <c r="U6" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="W6" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -3265,8 +3384,27 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="8"/>
+      <c r="U7" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -3275,8 +3413,27 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="8"/>
+      <c r="U8" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="V8" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="W8" s="72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -3285,8 +3442,18 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -3295,8 +3462,18 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3305,8 +3482,18 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -3315,8 +3502,18 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -3325,8 +3522,18 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C14" s="12"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3335,8 +3542,18 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C15" s="12"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -3345,8 +3562,18 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C16" s="12"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -3355,8 +3582,18 @@
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -3365,8 +3602,18 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -3375,8 +3622,18 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -3385,8 +3642,18 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="11"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -3395,8 +3662,18 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L20" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -3405,8 +3682,18 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="L21" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="17"/>
+    </row>
+    <row r="22" spans="3:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -3416,7 +3703,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -3426,7 +3713,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -3436,7 +3723,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -3446,7 +3733,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -3456,7 +3743,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -3466,7 +3753,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -3476,7 +3763,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -3486,7 +3773,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -3496,7 +3783,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -3506,7 +3793,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -3828,8 +4115,10 @@
     </row>
     <row r="64" spans="3:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C3:J4"/>
+    <mergeCell ref="L3:S4"/>
+    <mergeCell ref="U3:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3839,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3854,47 +4143,47 @@
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="30.7109375" customWidth="1"/>
     <col min="13" max="13" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="15.7109375" customWidth="1"/>
+    <col min="15" max="17" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="K3" s="78" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="K3" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-      <c r="O3" s="60" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="67"/>
+      <c r="O3" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="65"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -3921,22 +4210,22 @@
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="28" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3965,18 +4254,24 @@
       <c r="I6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="33"/>
+      <c r="O6" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -4006,17 +4301,23 @@
       <c r="K7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M7" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
@@ -4044,17 +4345,23 @@
       <c r="K8" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="M8" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
@@ -4082,17 +4389,17 @@
       <c r="K9" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="M9" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
-    </row>
-    <row r="10" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" s="50"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>28</v>
       </c>
@@ -4118,13 +4425,13 @@
         <v>16</v>
       </c>
       <c r="K10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="46" t="s">
-        <v>162</v>
+      <c r="M10" s="40" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
@@ -4153,13 +4460,13 @@
         <v>44</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="46" t="s">
-        <v>162</v>
+      <c r="M11" s="40" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
@@ -4182,19 +4489,19 @@
         <v>89</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="M12" s="46" t="s">
-        <v>166</v>
+      <c r="M12" s="40" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
@@ -4223,13 +4530,13 @@
         <v>51</v>
       </c>
       <c r="K13" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>167</v>
+      <c r="M13" s="40" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
@@ -4258,13 +4565,13 @@
         <v>53</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="M14" s="46" t="s">
-        <v>169</v>
+        <v>153</v>
+      </c>
+      <c r="L14" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4292,14 +4599,14 @@
       <c r="I15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="M15" s="48" t="s">
-        <v>170</v>
+      <c r="K15" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4327,9 +4634,9 @@
       <c r="I16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
@@ -4356,9 +4663,9 @@
       <c r="I17" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -4367,7 +4674,7 @@
       <c r="C18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="33" t="s">
         <v>138</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -4385,9 +4692,9 @@
       <c r="I18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
@@ -4396,7 +4703,7 @@
       <c r="C19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="33" t="s">
         <v>139</v>
       </c>
       <c r="E19" s="10" t="s">
@@ -4414,9 +4721,9 @@
       <c r="I19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
@@ -4426,7 +4733,7 @@
         <v>142</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>46</v>
@@ -4443,88 +4750,88 @@
       <c r="I20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="34" t="s">
+      <c r="D21" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="32" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="44"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AAA782-BB19-4720-844A-301C72615AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2F8AC0-9B37-4EEF-AF44-8794356565E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
   <sheets>
     <sheet name="The_Marathon" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="175">
   <si>
     <t>Az eszközök interfészein szereplő IP címeket szemléltető táblázat</t>
   </si>
@@ -101,9 +101,6 @@
     <t>193.41.1.1</t>
   </si>
   <si>
-    <t>ML_SW1</t>
-  </si>
-  <si>
     <t>10.10.0.251</t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t>10.30.66.254</t>
   </si>
   <si>
-    <t>The_Blesston</t>
-  </si>
-  <si>
     <t>Gig0/0.56</t>
   </si>
   <si>
@@ -555,6 +549,9 @@
   </si>
   <si>
     <t>ML-SW4 -&gt; Linux_Server</t>
+  </si>
+  <si>
+    <t>Az SSH jelszavakat szemléltető táblázat</t>
   </si>
 </sst>
 </file>
@@ -635,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1159,11 +1156,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,6 +1396,56 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1649,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1681,12 +1795,12 @@
       <c r="H3" s="58"/>
       <c r="I3" s="59"/>
       <c r="K3" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="65"/>
       <c r="O3" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="52"/>
       <c r="Q3" s="53"/>
@@ -1733,22 +1847,22 @@
         <v>8</v>
       </c>
       <c r="K5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="M5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="Q5" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1768,7 +1882,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>11</v>
@@ -1777,22 +1891,22 @@
         <v>11</v>
       </c>
       <c r="K6" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="M6" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="29" t="s">
-        <v>86</v>
-      </c>
       <c r="O6" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -1800,43 +1914,43 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="41" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P7" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1856,7 +1970,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>11</v>
@@ -1865,22 +1979,22 @@
         <v>11</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P8" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1888,34 +2002,34 @@
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O9" s="39"/>
       <c r="P9" s="40"/>
@@ -1926,115 +2040,115 @@
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="K11" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L11" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="K12" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L12" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>13</v>
@@ -2043,68 +2157,68 @@
         <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M13" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="K14" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>12</v>
@@ -2113,103 +2227,103 @@
         <v>11</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L15" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="I16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L16" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="K17" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L17" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>13</v>
@@ -2218,103 +2332,103 @@
         <v>11</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L18" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="K19" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L19" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="K20" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L20" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>13</v>
@@ -2323,68 +2437,68 @@
         <v>11</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L21" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="K22" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L22" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>12</v>
@@ -2393,103 +2507,103 @@
         <v>11</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L23" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="I24" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L25" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>13</v>
@@ -2498,135 +2612,135 @@
         <v>11</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L27" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L28" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="9" t="s">
+      <c r="I29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="K29" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L29" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>11</v>
@@ -2641,85 +2755,85 @@
         <v>11</v>
       </c>
       <c r="H30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="K30" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L30" s="46"/>
       <c r="M30" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L31" s="50"/>
       <c r="M31" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M32" s="42"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>11</v>
@@ -2734,61 +2848,61 @@
         <v>11</v>
       </c>
       <c r="H33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="M33" s="42"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M34" s="42"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>14</v>
@@ -2797,25 +2911,25 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>14</v>
@@ -2824,25 +2938,25 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="37" t="s">
-        <v>60</v>
-      </c>
       <c r="D37" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="37" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I37" s="38" t="s">
         <v>14</v>
@@ -2851,25 +2965,25 @@
     </row>
     <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>14</v>
@@ -3146,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A484A0-15AF-44A1-BE8B-ECFED38A64CF}">
   <dimension ref="C2:W64"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,13 +3273,11 @@
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="23" width="22.7109375" customWidth="1"/>
   </cols>
@@ -3182,21 +3294,21 @@
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
       <c r="J3" s="59"/>
-      <c r="L3" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="59"/>
-      <c r="U3" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="53"/>
+      <c r="L3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="71"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="60"/>
@@ -3207,19 +3319,19 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="62"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="62"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="56"/>
-    </row>
-    <row r="5" spans="3:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="71"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+    </row>
+    <row r="5" spans="3:23" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3244,41 +3356,31 @@
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U5" s="23" t="s">
+      <c r="L5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="84"/>
+      <c r="P5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="23" t="s">
+      <c r="R5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="W5" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="3:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="72"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+    </row>
+    <row r="6" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3287,27 +3389,31 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
-      <c r="L6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
-      <c r="U6" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="V6" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="82"/>
+      <c r="P6" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" s="73"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+    </row>
+    <row r="7" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3316,27 +3422,31 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
-      <c r="L7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="7"/>
-      <c r="U7" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="V7" s="14" t="s">
+      <c r="L7" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="O7" s="82"/>
+      <c r="P7" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="W7" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="73"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+    </row>
+    <row r="8" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -3345,27 +3455,31 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
-      <c r="L8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="7"/>
-      <c r="U8" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="V8" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="W8" s="44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="3:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="82"/>
+      <c r="P8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="R8" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="S8" s="73"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+    </row>
+    <row r="9" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -3374,18 +3488,22 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
-      <c r="L9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="82"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+    </row>
+    <row r="10" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -3394,18 +3512,22 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="10"/>
-    </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L10" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="O10" s="78"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+    </row>
+    <row r="11" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3414,18 +3536,22 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
-      <c r="L11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L11" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="78"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+    </row>
+    <row r="12" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -3434,18 +3560,22 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
-      <c r="L12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
-    </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L12" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" s="78"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+    </row>
+    <row r="13" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -3454,18 +3584,22 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
-      <c r="L13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" s="78"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+    </row>
+    <row r="14" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -3474,18 +3608,22 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="L14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="10"/>
-    </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L14" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" s="78"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+    </row>
+    <row r="15" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -3494,18 +3632,22 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="L15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="L15" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" s="78"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+    </row>
+    <row r="16" spans="3:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3514,18 +3656,16 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
-      <c r="L16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="10"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L16" s="79"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+    </row>
+    <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -3534,18 +3674,16 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
-      <c r="L17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L17" s="75"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+    </row>
+    <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -3554,18 +3692,16 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
-      <c r="L18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="10"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+    </row>
+    <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -3574,18 +3710,16 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
-      <c r="L19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="10"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L19" s="75"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+    </row>
+    <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -3594,18 +3728,16 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
-      <c r="L20" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="10"/>
-    </row>
-    <row r="21" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="85"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+    </row>
+    <row r="21" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -3614,18 +3746,16 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="10"/>
-      <c r="L21" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="13"/>
-    </row>
-    <row r="22" spans="3:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="75"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -4049,10 +4179,11 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C3:J4"/>
-    <mergeCell ref="L3:S4"/>
-    <mergeCell ref="U3:W4"/>
+    <mergeCell ref="L3:N4"/>
+    <mergeCell ref="P3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4060,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
   <dimension ref="B2:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,12 +4222,12 @@
       <c r="H3" s="58"/>
       <c r="I3" s="59"/>
       <c r="K3" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="52"/>
       <c r="M3" s="53"/>
       <c r="O3" s="51" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="P3" s="52"/>
       <c r="Q3" s="53"/>
@@ -4143,22 +4274,22 @@
         <v>8</v>
       </c>
       <c r="K5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="M5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="35" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="Q5" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4169,16 +4300,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>11</v>
@@ -4187,22 +4318,22 @@
         <v>11</v>
       </c>
       <c r="K6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="M6" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="21" t="s">
-        <v>86</v>
-      </c>
       <c r="O6" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -4210,10 +4341,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>10</v>
@@ -4222,110 +4353,110 @@
         <v>11</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="K7" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P7" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="L8" s="47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="P8" s="43" t="s">
-        <v>141</v>
-      </c>
       <c r="Q8" s="44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L9" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M9" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O9" s="39"/>
       <c r="P9" s="40"/>
@@ -4333,48 +4464,48 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="H10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>12</v>
@@ -4383,103 +4514,103 @@
         <v>11</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L11" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="I12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L12" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>13</v>
@@ -4488,107 +4619,107 @@
         <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="L14" s="48" t="s">
-        <v>125</v>
-      </c>
       <c r="M14" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M15" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16" s="30"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="D17" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>14</v>
@@ -4597,25 +4728,25 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>14</v>
@@ -4624,55 +4755,55 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="I19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M19" s="30"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="I20" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M20" s="30"/>
     </row>

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2F8AC0-9B37-4EEF-AF44-8794356565E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4DFDD3-EFD6-4560-8D6B-A60535C4FFCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
@@ -1343,60 +1343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1446,6 +1392,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1784,42 +1784,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-      <c r="K3" s="63" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="K3" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="O3" s="51" t="s">
+      <c r="L3" s="84"/>
+      <c r="M3" s="85"/>
+      <c r="O3" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -3284,52 +3284,52 @@
   <sheetData>
     <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-      <c r="L3" s="51" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="L3" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="51" t="s">
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="71"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="53"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="71"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="53"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
     </row>
     <row r="5" spans="3:23" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -3365,7 +3365,7 @@
       <c r="N5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="84"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="23" t="s">
         <v>74</v>
       </c>
@@ -3375,10 +3375,10 @@
       <c r="R5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
+      <c r="S5" s="54"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
     </row>
     <row r="6" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
@@ -3398,7 +3398,7 @@
       <c r="N6" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="82"/>
+      <c r="O6" s="64"/>
       <c r="P6" s="24" t="s">
         <v>139</v>
       </c>
@@ -3408,10 +3408,10 @@
       <c r="R6" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="S6" s="73"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
+      <c r="S6" s="55"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
     </row>
     <row r="7" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
@@ -3431,7 +3431,7 @@
       <c r="N7" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="O7" s="82"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="8" t="s">
         <v>139</v>
       </c>
@@ -3441,10 +3441,10 @@
       <c r="R7" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="73"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
+      <c r="S7" s="55"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
     </row>
     <row r="8" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
@@ -3464,7 +3464,7 @@
       <c r="N8" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="82"/>
+      <c r="O8" s="64"/>
       <c r="P8" s="11" t="s">
         <v>139</v>
       </c>
@@ -3474,10 +3474,10 @@
       <c r="R8" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="S8" s="73"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
+      <c r="S8" s="55"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
     </row>
     <row r="9" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
@@ -3497,11 +3497,11 @@
       <c r="N9" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
     </row>
     <row r="10" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
@@ -3521,11 +3521,11 @@
       <c r="N10" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="O10" s="78"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
     </row>
     <row r="11" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
@@ -3545,11 +3545,11 @@
       <c r="N11" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="O11" s="78"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
     </row>
     <row r="12" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
@@ -3569,11 +3569,11 @@
       <c r="N12" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="O12" s="78"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
     </row>
     <row r="13" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
@@ -3593,11 +3593,11 @@
       <c r="N13" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="O13" s="78"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
     </row>
     <row r="14" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -3617,11 +3617,11 @@
       <c r="N14" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="O14" s="78"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
     </row>
     <row r="15" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
@@ -3641,11 +3641,11 @@
       <c r="N15" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="O15" s="78"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
     </row>
     <row r="16" spans="3:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
@@ -3656,14 +3656,14 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
@@ -3674,14 +3674,14 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
@@ -3692,14 +3692,14 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
@@ -3710,14 +3710,14 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
@@ -3728,14 +3728,14 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
     </row>
     <row r="21" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
@@ -3746,14 +3746,14 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="10"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
@@ -4211,42 +4211,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-      <c r="K3" s="51" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
+      <c r="K3" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
-      <c r="O3" s="51" t="s">
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
+      <c r="O3" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="76"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4DFDD3-EFD6-4560-8D6B-A60535C4FFCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D663596-CC6C-4BDD-A34B-8233D4C19DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="181">
   <si>
     <t>Az eszközök interfészein szereplő IP címeket szemléltető táblázat</t>
   </si>
@@ -461,9 +461,6 @@
     <t>Titok2023</t>
   </si>
   <si>
-    <t>The_Marathon</t>
-  </si>
-  <si>
     <t>10.30.66.253</t>
   </si>
   <si>
@@ -552,13 +549,34 @@
   </si>
   <si>
     <t>Az SSH jelszavakat szemléltető táblázat</t>
+  </si>
+  <si>
+    <t>Bejelentkezési lehetőségek</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>Windows Server Administrator</t>
+  </si>
+  <si>
+    <t>Debian Root</t>
+  </si>
+  <si>
+    <t>SW2 -&gt; Aljzatok</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,6 +623,19 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -632,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1044,21 +1075,6 @@
       <right style="mediumDashed">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="mediumDashed">
-        <color indexed="64"/>
-      </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
@@ -1092,19 +1108,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1128,32 +1131,6 @@
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1223,11 +1200,400 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1262,9 +1628,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1281,17 +1644,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1300,18 +1660,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1325,7 +1678,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1337,115 +1690,247 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,47 +2264,48 @@
     <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="K3" s="83" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="K3" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="84"/>
-      <c r="M3" s="85"/>
-      <c r="O3" s="71" t="s">
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="O3" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="65"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="76"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="80"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -1846,1404 +2332,1485 @@
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="23" t="s">
+      <c r="O5" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="90" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="20" t="s">
+      <c r="H6" s="127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="25" t="s">
+      <c r="O6" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="91" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="115" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q9" s="94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D10" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F10" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H10" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="P7" s="14" t="s">
+      <c r="I10" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q10" s="95" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="43" t="s">
+      <c r="H11" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q11" s="95" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="P12" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q13" s="97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F14" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H14" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="I14" s="134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="P15" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q15" s="95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="114" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="114" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="114" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="L26" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="114" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="114" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="114" t="s">
+        <v>172</v>
+      </c>
+      <c r="L29" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="L30" s="109"/>
+      <c r="M30" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="129" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="109"/>
+      <c r="M31" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="115" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" s="111"/>
+      <c r="M32" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="129" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" s="112"/>
+      <c r="M33" s="31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="E34" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="H34" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="37"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="L11" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="H35" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="37"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="129" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="37"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="G37" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="135" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="37"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F38" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H38" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I38" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="L17" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="M19" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="L22" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L24" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="M24" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" s="32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="L26" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="L27" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="M27" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="L28" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="L30" s="46"/>
-      <c r="M30" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="50"/>
-      <c r="M31" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" s="42"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="42"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M34" s="42"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="42"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="42"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="42"/>
-    </row>
-    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="42"/>
+      <c r="M38" s="37"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="M39" s="42"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="M39" s="37"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="M40" s="42"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="M40" s="37"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="M41" s="42"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="M41" s="37"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="M42" s="42"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="M42" s="37"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="M43" s="42"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="M43" s="37"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="39"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="39"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="39"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="39"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="39"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="39"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="39"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="39"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3251,6 +3818,7 @@
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="K3:M4"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3260,8 +3828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A484A0-15AF-44A1-BE8B-ECFED38A64CF}">
   <dimension ref="C2:W64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,52 +3852,52 @@
   <sheetData>
     <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
-      <c r="L3" s="71" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="L3" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="53"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="45"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="82"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="53"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="45"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
     </row>
     <row r="5" spans="3:23" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -3356,29 +3924,29 @@
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="23" t="s">
+      <c r="O5" s="58"/>
+      <c r="P5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="S5" s="54"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
+      <c r="S5" s="46"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
     </row>
     <row r="6" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
@@ -3389,29 +3957,29 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="24" t="s">
+      <c r="O6" s="56"/>
+      <c r="P6" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="S6" s="55"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
+      <c r="S6" s="47"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
     <row r="7" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
@@ -3422,16 +3990,16 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
-      <c r="L7" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="46" t="s">
+      <c r="L7" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="O7" s="64"/>
+      <c r="O7" s="56"/>
       <c r="P7" s="8" t="s">
         <v>139</v>
       </c>
@@ -3441,10 +4009,10 @@
       <c r="R7" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="S7" s="55"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
+      <c r="S7" s="47"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
     <row r="8" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
@@ -3455,29 +4023,29 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
-      <c r="L8" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="M8" s="47" t="s">
+      <c r="L8" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="64"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="Q8" s="43" t="s">
+      <c r="Q8" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="R8" s="44" t="s">
+      <c r="R8" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="S8" s="55"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
+      <c r="S8" s="47"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
     </row>
     <row r="9" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
@@ -3488,20 +4056,20 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
-      <c r="L9" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="M9" s="48" t="s">
+      <c r="L9" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
     </row>
     <row r="10" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
@@ -3512,20 +4080,20 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="48" t="s">
+      <c r="M10" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="O10" s="60"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
     </row>
     <row r="11" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
@@ -3536,20 +4104,20 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="M11" s="48" t="s">
+      <c r="M11" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="O11" s="60"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
     </row>
     <row r="12" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
@@ -3560,20 +4128,20 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="O12" s="60"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
     </row>
     <row r="13" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
@@ -3584,20 +4152,20 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="O13" s="60"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
     </row>
     <row r="14" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
@@ -3608,20 +4176,20 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="M14" s="48" t="s">
+      <c r="M14" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="N14" s="32" t="s">
+      <c r="N14" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="O14" s="60"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
     </row>
     <row r="15" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
@@ -3632,20 +4200,20 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="M15" s="49" t="s">
+      <c r="M15" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="N15" s="33" t="s">
+      <c r="N15" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="O15" s="60"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
     </row>
     <row r="16" spans="3:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
@@ -3656,14 +4224,14 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
@@ -3674,14 +4242,14 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="8"/>
@@ -3692,14 +4260,14 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
@@ -3710,14 +4278,14 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
@@ -3728,14 +4296,14 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
     </row>
     <row r="21" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
@@ -3746,14 +4314,14 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="10"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="8"/>
@@ -4191,8 +4759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
   <dimension ref="B2:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q8"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4206,47 +4774,48 @@
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="30.7109375" customWidth="1"/>
     <col min="13" max="13" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+    <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="K3" s="71" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="K3" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73"/>
-      <c r="O3" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="76"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="65"/>
+      <c r="O3" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="65"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -4273,562 +4842,631 @@
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="23" t="s">
+      <c r="O5" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="90" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="28" t="s">
+      <c r="H6" s="127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="132" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="P6" s="25" t="s">
+      <c r="O6" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="91" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="O7" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="L7" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="P7" s="14" t="s">
+      <c r="L8" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="P9" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q9" s="94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="O10" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q10" s="95" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P8" s="43" t="s">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="129" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="P11" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q11" s="95" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="P12" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="110" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q13" s="97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="129" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="P15" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q15" s="95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="129" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="28"/>
+      <c r="O16" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G17" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="134" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="F18" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H18" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I18" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="L10" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="H19" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="131" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="H20" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I20" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="M14" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" s="30"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="M21" s="30"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M22" s="30"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M23" s="30"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="30"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M25" s="30"/>
+      <c r="M25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD10E79C-7452-43EE-A0CD-0CAE542937A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F143C4-E867-4B21-8826-F2327924D0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
   <sheets>
     <sheet name="The_Marathon" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="197">
   <si>
     <t>Az eszközök interfészein szereplő IP címeket szemléltető táblázat</t>
   </si>
@@ -281,48 +281,9 @@
     <t>Gig0/0 -&gt; Gig1/0/1</t>
   </si>
   <si>
-    <t>Gig1/0/2 -&gt; Port 0</t>
-  </si>
-  <si>
-    <t>Gig1/0/3 -&gt; Port 0</t>
-  </si>
-  <si>
-    <t>Gig1/0/23 -&gt; Gig1/0/23</t>
-  </si>
-  <si>
-    <t>Gig1/0/24 -&gt; Gig1/0/24</t>
-  </si>
-  <si>
-    <t>Gig1/0/21 -&gt; Gig1/0/21</t>
-  </si>
-  <si>
-    <t>Gig1/0/22 -&gt; Gig1/0/22</t>
-  </si>
-  <si>
     <t>Gig1/0/11 -&gt; Gig0/1</t>
   </si>
   <si>
-    <t>Gig1/0/12 -&gt; Gig0/2</t>
-  </si>
-  <si>
-    <t>Gig1/0/12 -&gt; Gig0/1</t>
-  </si>
-  <si>
-    <t>Gig1/0/11 -&gt; Gig0/2</t>
-  </si>
-  <si>
-    <t>Gig1/0/10-&gt;Gig0</t>
-  </si>
-  <si>
-    <t>Gig1/0/11-Gig0</t>
-  </si>
-  <si>
-    <t>Gig1/0/10-&gt;Gig1</t>
-  </si>
-  <si>
-    <t>Gig1/0/11-Gig1</t>
-  </si>
-  <si>
     <t>10.30.64.1</t>
   </si>
   <si>
@@ -392,9 +353,6 @@
     <t>SW2-&gt; Számítógépek</t>
   </si>
   <si>
-    <t>SW1 -&gt; Nyomtatók</t>
-  </si>
-  <si>
     <t>SW1 -&gt; Aljzatok</t>
   </si>
   <si>
@@ -584,13 +542,82 @@
     <t>e1/0 -&gt; e4/3</t>
   </si>
   <si>
-    <t>Gig0/0</t>
-  </si>
-  <si>
     <t>e1</t>
   </si>
   <si>
     <t>Portok átírása</t>
+  </si>
+  <si>
+    <t>f0/0</t>
+  </si>
+  <si>
+    <t>f0/0 -&gt; ISP</t>
+  </si>
+  <si>
+    <t>e3/3 -&gt; e3/3</t>
+  </si>
+  <si>
+    <t>e3/2 -&gt; e3/2</t>
+  </si>
+  <si>
+    <t>e3/0 -&gt; e3/0</t>
+  </si>
+  <si>
+    <t>e3/1 -&gt; e3/1</t>
+  </si>
+  <si>
+    <t>e2/1 -&gt; e0</t>
+  </si>
+  <si>
+    <t>SW1 -&gt; Számítógépek</t>
+  </si>
+  <si>
+    <t>SW2 -&gt; Számítógépek</t>
+  </si>
+  <si>
+    <t>Aljzatok és switch kapcsolata</t>
+  </si>
+  <si>
+    <t>e2/0 -&gt; e0</t>
+  </si>
+  <si>
+    <t>e2/0 -&gt;  e0</t>
+  </si>
+  <si>
+    <t>e2/0 -&gt; e0/0</t>
+  </si>
+  <si>
+    <t>e2/1 -&gt; e0/1</t>
+  </si>
+  <si>
+    <t>e1/0 -&gt; 5/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e6/0 -&gt; e11/3 </t>
+  </si>
+  <si>
+    <t>e1/0 -&gt; e2/1</t>
+  </si>
+  <si>
+    <t>e3/0 -&gt; e4/3</t>
+  </si>
+  <si>
+    <t>vlan76</t>
+  </si>
+  <si>
+    <t>10.10.76.1</t>
+  </si>
+  <si>
+    <t>Vlan76</t>
+  </si>
+  <si>
+    <t>Ports</t>
+  </si>
+  <si>
+    <t>10.10.76.2</t>
+  </si>
+  <si>
+    <t>e5/0 -&gt; e5/3</t>
   </si>
 </sst>
 </file>
@@ -697,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1502,12 +1529,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1686,16 +1756,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,6 +1848,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1842,7 +1903,48 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bevitel" xfId="1" builtinId="20"/>
@@ -2160,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="J2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,42 +2284,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
-      <c r="K3" s="130" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
+      <c r="K3" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="131"/>
-      <c r="M3" s="132"/>
-      <c r="O3" s="118" t="s">
+      <c r="L3" s="126"/>
+      <c r="M3" s="127"/>
+      <c r="O3" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="120"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="115"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="127"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="129"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="135"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="123"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="130"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="118"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -2254,9 +2356,9 @@
         <v>69</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="P5" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="112" t="s">
         <v>71</v>
       </c>
       <c r="Q5" s="59" t="s">
@@ -2264,1237 +2366,1281 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="78" t="s">
+      <c r="H6" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="76" t="s">
-        <v>175</v>
+      <c r="L6" s="136" t="s">
+        <v>174</v>
       </c>
       <c r="M6" s="21" t="s">
         <v>81</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="P6" s="68" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="60" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="132" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="137" t="s">
         <v>174</v>
-      </c>
-      <c r="D7" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="77" t="s">
-        <v>175</v>
       </c>
       <c r="M7" s="30" t="s">
         <v>81</v>
       </c>
       <c r="O7" s="52" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="P7" s="69" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="102" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="92" t="s">
+      <c r="C8" s="132" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="77" t="s">
-        <v>176</v>
+      <c r="H8" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="140" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="137" t="s">
+        <v>162</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="O8" s="53" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="P8" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="132" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="139" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="137" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="139" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="134" t="s">
+        <v>167</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="139" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="Q8" s="62" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="L9" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="O9" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="P9" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q9" s="63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="O10" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="P10" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q10" s="64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="97" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="O11" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="P11" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q11" s="64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="L12" s="102" t="s">
-        <v>84</v>
+      <c r="L12" s="134" t="s">
+        <v>167</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O12" s="56" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="P12" s="73" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="Q12" s="65" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="87" t="s">
+      <c r="F13" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="L13" s="102" t="s">
-        <v>84</v>
+      <c r="K13" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="134" t="s">
+        <v>168</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="P13" s="74" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="66" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="87" t="s">
+      <c r="F14" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" s="102" t="s">
-        <v>86</v>
+      <c r="K14" s="139" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="134" t="s">
+        <v>176</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="O14" s="55" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="P14" s="72" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="64" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="87" t="s">
+      <c r="F15" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="H15" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="98" t="s">
+      <c r="I15" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" s="102" t="s">
-        <v>87</v>
+      <c r="K15" s="139" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="134" t="s">
+        <v>175</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="O15" s="55" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="P15" s="72" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="Q15" s="64" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="102" t="s">
-        <v>88</v>
+      <c r="K16" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="134" t="s">
+        <v>177</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="67" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="87" t="s">
+      <c r="F17" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="93" t="s">
+      <c r="H17" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="98" t="s">
+      <c r="I17" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" s="102" t="s">
-        <v>89</v>
+      <c r="K17" s="139" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" s="134" t="s">
+        <v>178</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="L18" s="102" t="s">
-        <v>89</v>
+      <c r="H18" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="134" t="s">
+        <v>178</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="L19" s="102" t="s">
-        <v>88</v>
+      <c r="H19" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="139" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="134" t="s">
+        <v>177</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="102" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="143" t="s">
+        <v>185</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="88" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="143" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="L21" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="102" t="s">
-        <v>93</v>
+      <c r="H22" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="139" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="143" t="s">
+        <v>186</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="L23" s="102" t="s">
-        <v>91</v>
+      <c r="H23" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="143" t="s">
+        <v>185</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="93" t="s">
+      <c r="H24" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="L24" s="102" t="s">
-        <v>86</v>
+      <c r="I24" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="134" t="s">
+        <v>176</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="88" t="s">
+      <c r="F25" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="L25" s="102" t="s">
-        <v>87</v>
+      <c r="H25" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="134" t="s">
+        <v>175</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="102" t="s">
-        <v>94</v>
+      <c r="H26" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="141" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="143" t="s">
+        <v>184</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="L27" s="102" t="s">
-        <v>95</v>
+      <c r="H27" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="L27" s="143" t="s">
+        <v>179</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="88" t="s">
+      <c r="D28" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="88" t="s">
+      <c r="F28" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="93" t="s">
+      <c r="H28" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="98" t="s">
+      <c r="I28" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="L28" s="102" t="s">
-        <v>96</v>
+      <c r="K28" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="143" t="s">
+        <v>183</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="L29" s="102" t="s">
-        <v>97</v>
+        <v>143</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="141" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" s="143" t="s">
+        <v>179</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="L30" s="102"/>
+        <v>148</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="L30" s="134" t="s">
+        <v>187</v>
+      </c>
       <c r="M30" s="24" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="93" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="L31" s="102"/>
+      <c r="C31" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="134" t="s">
+        <v>188</v>
+      </c>
       <c r="M31" s="24" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32" s="134" t="s">
+        <v>189</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="M33" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="L32" s="102"/>
-      <c r="M32" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="K33" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="L33" s="102"/>
-      <c r="M33" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="91" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="L34" s="144" t="s">
+        <v>196</v>
+      </c>
+      <c r="M34" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="92" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="88" t="s">
+      <c r="D36" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="93" t="s">
+      <c r="F36" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="88" t="s">
+      <c r="G36" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="93" t="s">
+      <c r="H36" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="98" t="s">
+      <c r="I36" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="M34" s="31"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="84" t="s">
+      <c r="M36" s="31"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="102" t="s">
-        <v>172</v>
-      </c>
-      <c r="D35" s="93" t="s">
+      <c r="C37" s="132" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="E37" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F37" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="88" t="s">
+      <c r="G37" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="93" t="s">
+      <c r="H37" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="98" t="s">
+      <c r="I37" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="M35" s="31"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="84" t="s">
+      <c r="M37" s="31"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="93" t="s">
+      <c r="C38" s="132" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="88" t="s">
+      <c r="E38" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="93" t="s">
+      <c r="F38" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="88" t="s">
+      <c r="G38" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="93" t="s">
+      <c r="H38" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="98" t="s">
+      <c r="I38" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="103" t="s">
-        <v>187</v>
-      </c>
-      <c r="M36" s="31"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="85" t="s">
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="102" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="94" t="s">
+      <c r="C39" s="132" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E39" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="94" t="s">
+      <c r="F39" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="89" t="s">
+      <c r="G39" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="94" t="s">
+      <c r="H39" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="I37" s="99" t="s">
+      <c r="I39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="M37" s="31"/>
-    </row>
-    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="53" t="s">
+      <c r="M39" s="31"/>
+    </row>
+    <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="90" t="s">
+      <c r="C40" s="133" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="95" t="s">
+      <c r="F40" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="90" t="s">
+      <c r="G40" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="95" t="s">
+      <c r="H40" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="I38" s="100" t="s">
+      <c r="I40" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="M38" s="31"/>
-    </row>
-    <row r="39" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="M39" s="31"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
       <c r="M40" s="31"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -3768,48 +3914,48 @@
   <sheetData>
     <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="126"/>
-      <c r="L3" s="118" t="s">
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121"/>
+      <c r="L3" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="115"/>
       <c r="O3" s="44"/>
-      <c r="P3" s="118" t="s">
+      <c r="P3" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="120"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="115"/>
       <c r="S3" s="32"/>
       <c r="U3" s="49"/>
       <c r="V3" s="49"/>
       <c r="W3" s="49"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="129"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
       <c r="O4" s="44"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="123"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="118"/>
       <c r="S4" s="32"/>
       <c r="U4" s="49"/>
       <c r="V4" s="49"/>
@@ -3851,9 +3997,9 @@
       </c>
       <c r="O5" s="45"/>
       <c r="P5" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q5" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="112" t="s">
         <v>71</v>
       </c>
       <c r="R5" s="59" t="s">
@@ -3876,7 +4022,7 @@
       <c r="L6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="102" t="s">
+      <c r="M6" s="96" t="s">
         <v>80</v>
       </c>
       <c r="N6" s="18" t="s">
@@ -3884,13 +4030,13 @@
       </c>
       <c r="O6" s="43"/>
       <c r="P6" s="51" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="Q6" s="68" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="R6" s="60" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S6" s="34"/>
       <c r="U6" s="28"/>
@@ -3907,23 +4053,23 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
       <c r="L7" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M7" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="96" t="s">
         <v>83</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="O7" s="43"/>
       <c r="P7" s="52" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="69" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="R7" s="61" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S7" s="34"/>
       <c r="U7" s="28"/>
@@ -3940,23 +4086,23 @@
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
       <c r="L8" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="M8" s="102" t="s">
-        <v>108</v>
+        <v>131</v>
+      </c>
+      <c r="M8" s="96" t="s">
+        <v>95</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="O8" s="43"/>
       <c r="P8" s="53" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="70" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R8" s="62" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S8" s="34"/>
       <c r="U8" s="28"/>
@@ -3973,23 +4119,23 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
       <c r="L9" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="M9" s="102" t="s">
-        <v>109</v>
+        <v>132</v>
+      </c>
+      <c r="M9" s="96" t="s">
+        <v>96</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="O9" s="43"/>
       <c r="P9" s="54" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="71" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="R9" s="63" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S9" s="34"/>
     </row>
@@ -4003,23 +4149,23 @@
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
       <c r="L10" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="102" t="s">
-        <v>112</v>
+        <v>97</v>
+      </c>
+      <c r="M10" s="96" t="s">
+        <v>99</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="54" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="72" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="R10" s="64" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S10" s="35"/>
     </row>
@@ -4033,23 +4179,23 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
       <c r="L11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="24" t="s">
         <v>111</v>
-      </c>
-      <c r="M11" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>125</v>
       </c>
       <c r="O11" s="39"/>
       <c r="P11" s="54" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="72" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R11" s="64" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S11" s="35"/>
     </row>
@@ -4063,23 +4209,23 @@
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
       <c r="L12" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>129</v>
       </c>
       <c r="O12" s="39"/>
       <c r="P12" s="54" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="Q12" s="73" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="R12" s="65" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S12" s="35"/>
     </row>
@@ -4093,23 +4239,23 @@
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="L13" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="M13" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="O13" s="39"/>
       <c r="P13" s="57" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="74" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="R13" s="66" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S13" s="35"/>
     </row>
@@ -4123,23 +4269,23 @@
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="L14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="24" t="s">
         <v>118</v>
-      </c>
-      <c r="M14" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>132</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="55" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="72" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="R14" s="64" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S14" s="35"/>
     </row>
@@ -4153,23 +4299,23 @@
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
       <c r="L15" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M15" s="102" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="M15" s="96" t="s">
+        <v>104</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="O15" s="39"/>
       <c r="P15" s="55" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Q15" s="72" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R15" s="64" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S15" s="35"/>
     </row>
@@ -4187,13 +4333,13 @@
       <c r="N16" s="41"/>
       <c r="O16" s="35"/>
       <c r="P16" s="58" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="75" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="R16" s="67" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="S16" s="35"/>
     </row>
@@ -4206,8 +4352,8 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
-      <c r="L17" s="103" t="s">
-        <v>187</v>
+      <c r="L17" s="97" t="s">
+        <v>172</v>
       </c>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
@@ -4725,8 +4871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
   <dimension ref="B2:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4746,42 +4892,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
-      <c r="K3" s="118" t="s">
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
+      <c r="K3" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="119"/>
-      <c r="M3" s="120"/>
-      <c r="O3" s="118" t="s">
+      <c r="L3" s="114"/>
+      <c r="M3" s="115"/>
+      <c r="O3" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="120"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="115"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="127"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="129"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="123"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="123"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="118"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="118"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -4808,19 +4954,19 @@
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="104" t="s">
+      <c r="L5" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="105" t="s">
+      <c r="M5" s="99" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="P5" s="136" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="112" t="s">
         <v>71</v>
       </c>
       <c r="Q5" s="59" t="s">
@@ -4828,504 +4974,504 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="91" t="s">
+      <c r="C6" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="91" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="96" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="106" t="s">
+      <c r="H6" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="107" t="s">
-        <v>175</v>
-      </c>
-      <c r="M6" s="108" t="s">
+      <c r="L6" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="102" t="s">
         <v>81</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="P6" s="68" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="60" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="92" t="s">
+      <c r="C7" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="87" t="s">
+      <c r="F7" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="97" t="s">
+      <c r="I7" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="109" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="110" t="s">
-        <v>176</v>
-      </c>
-      <c r="M7" s="111" t="s">
-        <v>124</v>
+      <c r="K7" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>110</v>
       </c>
       <c r="O7" s="52" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="P7" s="69" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="87" t="s">
+      <c r="B8" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="92" t="s">
+      <c r="D8" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="112" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="M8" s="114" t="s">
-        <v>128</v>
+      <c r="K8" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="107" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="108" t="s">
+        <v>114</v>
       </c>
       <c r="O8" s="53" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="P8" s="70" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="87" t="s">
+      <c r="F9" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="98" t="s">
+      <c r="I9" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="114" t="s">
-        <v>128</v>
+      <c r="K9" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="108" t="s">
+        <v>114</v>
       </c>
       <c r="O9" s="54" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="63" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="87" t="s">
+      <c r="B10" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="115" t="s">
-        <v>125</v>
+      <c r="K10" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="M10" s="109" t="s">
+        <v>111</v>
       </c>
       <c r="O10" s="54" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="64" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="93" t="s">
+      <c r="L11" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="M11" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="64" t="s">
         <v>123</v>
-      </c>
-      <c r="I11" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="M11" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="O11" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="P11" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q11" s="64" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="88" t="s">
+      <c r="D12" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="87" t="s">
+      <c r="F12" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="93" t="s">
+      <c r="H12" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="98" t="s">
+      <c r="I12" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="M12" s="115" t="s">
-        <v>129</v>
+      <c r="K12" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="109" t="s">
+        <v>115</v>
       </c>
       <c r="O12" s="54" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="P12" s="73" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="Q12" s="65" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="88" t="s">
+      <c r="D13" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="87" t="s">
+      <c r="F13" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="93" t="s">
+      <c r="H13" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="M13" s="115" t="s">
-        <v>130</v>
+      <c r="K13" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="109" t="s">
+        <v>116</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="P13" s="74" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="66" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="88" t="s">
+      <c r="D14" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="87" t="s">
+      <c r="F14" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="98" t="s">
+      <c r="I14" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="109" t="s">
+      <c r="K14" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="L14" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="M14" s="115" t="s">
-        <v>132</v>
-      </c>
       <c r="O14" s="55" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="P14" s="72" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="64" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="88" t="s">
+      <c r="D15" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="87" t="s">
+      <c r="F15" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="H15" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="98" t="s">
+      <c r="I15" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="116" t="s">
+      <c r="K15" s="110" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="P15" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="L15" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="M15" s="117" t="s">
-        <v>133</v>
-      </c>
-      <c r="O15" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="P15" s="72" t="s">
-        <v>134</v>
-      </c>
       <c r="Q15" s="64" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="88" t="s">
+      <c r="D16" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="92" t="s">
         <v>49</v>
       </c>
       <c r="M16" s="22"/>
       <c r="O16" s="58" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="67" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="88" t="s">
+      <c r="C17" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="93" t="s">
+      <c r="F17" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="88" t="s">
+      <c r="G17" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="93" t="s">
+      <c r="H17" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="98" t="s">
+      <c r="I17" s="92" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="22"/>
@@ -5334,79 +5480,79 @@
       <c r="B18" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="88" t="s">
+      <c r="C18" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="87" t="s">
+      <c r="G18" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="93" t="s">
+      <c r="H18" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="98" t="s">
+      <c r="I18" s="92" t="s">
         <v>14</v>
       </c>
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="88" t="s">
+      <c r="F19" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="93" t="s">
+      <c r="H19" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="98" t="s">
+      <c r="I19" s="92" t="s">
         <v>45</v>
       </c>
       <c r="M19" s="22"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="90" t="s">
+      <c r="F20" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="95" t="s">
+      <c r="H20" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="100" t="s">
+      <c r="I20" s="94" t="s">
         <v>45</v>
       </c>
       <c r="M20" s="22"/>

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F143C4-E867-4B21-8826-F2327924D0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2489D001-680E-493E-B49A-CB3718F4A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
   <sheets>
     <sheet name="The_Marathon" sheetId="1" r:id="rId1"/>
-    <sheet name="András(The_Blesston)" sheetId="2" r:id="rId2"/>
-    <sheet name="Norman(The_Coleton)" sheetId="3" r:id="rId3"/>
+    <sheet name="The_Blesston" sheetId="2" r:id="rId2"/>
+    <sheet name="The_Coleton" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="199">
   <si>
     <t>Az eszközök interfészein szereplő IP címeket szemléltető táblázat</t>
   </si>
@@ -200,15 +200,9 @@
     <t>10.10.93.4</t>
   </si>
   <si>
-    <t>Windows_Server</t>
-  </si>
-  <si>
     <t>10.10.40.5</t>
   </si>
   <si>
-    <t>Linux_Server</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -329,12 +323,6 @@
     <t>Gig1/0/10 -&gt; Gig0/1</t>
   </si>
   <si>
-    <t>SW1 -&gt; Linux_Server</t>
-  </si>
-  <si>
-    <t>SW1 -&gt; Windows_Server</t>
-  </si>
-  <si>
     <t>Fa0/1 -&gt; Gig0</t>
   </si>
   <si>
@@ -380,9 +368,6 @@
     <t>DNS, AD szerver és switch kapcsolata</t>
   </si>
   <si>
-    <t>DHCP/WEB szerver és switch kapcsolata</t>
-  </si>
-  <si>
     <t>Nyomtató eszközök és switch kapcsolata</t>
   </si>
   <si>
@@ -455,15 +440,9 @@
     <t>ML-SW2 -&gt; ML-SW3</t>
   </si>
   <si>
-    <t>ML-SW3 -&gt; Windows_Server</t>
-  </si>
-  <si>
     <t>ML-SW3</t>
   </si>
   <si>
-    <t>ML-SW3 -&gt; Linux_Server</t>
-  </si>
-  <si>
     <t>ML-SW1 -&gt; ML-SW4</t>
   </si>
   <si>
@@ -476,12 +455,6 @@
     <t>ML-SW4</t>
   </si>
   <si>
-    <t>ML-SW4 -&gt; Windows_Server</t>
-  </si>
-  <si>
-    <t>ML-SW4 -&gt; Linux_Server</t>
-  </si>
-  <si>
     <t>Bejelentkezési lehetőségek</t>
   </si>
   <si>
@@ -542,9 +515,6 @@
     <t>e1/0 -&gt; e4/3</t>
   </si>
   <si>
-    <t>e1</t>
-  </si>
-  <si>
     <t>Portok átírása</t>
   </si>
   <si>
@@ -618,6 +588,42 @@
   </si>
   <si>
     <t>e5/0 -&gt; e5/3</t>
+  </si>
+  <si>
+    <t>SW1 -&gt; Linux Server</t>
+  </si>
+  <si>
+    <t>SW1 -&gt; Windows Server</t>
+  </si>
+  <si>
+    <t>Windows Server</t>
+  </si>
+  <si>
+    <t>Linux Server</t>
+  </si>
+  <si>
+    <t>ML-SW3 -&gt; Windows Server Main</t>
+  </si>
+  <si>
+    <t>ML-SW3 -&gt; Linux Server Main</t>
+  </si>
+  <si>
+    <t>ML-SW4 -&gt; Windows Server Second</t>
+  </si>
+  <si>
+    <t>ML-SW4 -&gt; Linux Server Second</t>
+  </si>
+  <si>
+    <t>Linux Server Main</t>
+  </si>
+  <si>
+    <t>Linux Server Second</t>
+  </si>
+  <si>
+    <t>Windows Server Main</t>
+  </si>
+  <si>
+    <t>Windows Server Second</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1849,6 +1855,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1901,48 +1943,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2262,13 +2262,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -2284,42 +2284,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121"/>
-      <c r="K3" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="126"/>
-      <c r="M3" s="127"/>
-      <c r="O3" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="115"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="133"/>
+      <c r="K3" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="138"/>
+      <c r="M3" s="139"/>
+      <c r="O3" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="127"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="130"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="118"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="136"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="142"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="130"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -2347,30 +2347,30 @@
         <v>8</v>
       </c>
       <c r="K5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="O5" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" s="112" t="s">
-        <v>71</v>
-      </c>
       <c r="Q5" s="59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="131" t="s">
-        <v>173</v>
+      <c r="C6" s="113" t="s">
+        <v>163</v>
       </c>
       <c r="D6" s="85" t="s">
         <v>16</v>
@@ -2382,7 +2382,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H6" s="85" t="s">
         <v>11</v>
@@ -2390,31 +2390,31 @@
       <c r="I6" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="138" t="s">
+      <c r="K6" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="136" t="s">
-        <v>174</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" s="51" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P6" s="68" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="60" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="132" t="s">
-        <v>160</v>
+      <c r="C7" s="114" t="s">
+        <v>151</v>
       </c>
       <c r="D7" s="86" t="s">
         <v>18</v>
@@ -2426,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="86" t="s">
         <v>37</v>
@@ -2434,31 +2434,31 @@
       <c r="I7" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="137" t="s">
-        <v>174</v>
+      <c r="K7" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="119" t="s">
+        <v>164</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O7" s="52" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P7" s="69" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="132" t="s">
-        <v>173</v>
+      <c r="C8" s="114" t="s">
+        <v>163</v>
       </c>
       <c r="D8" s="86" t="s">
         <v>17</v>
@@ -2470,7 +2470,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H8" s="86" t="s">
         <v>11</v>
@@ -2478,31 +2478,31 @@
       <c r="I8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="140" t="s">
-        <v>130</v>
-      </c>
-      <c r="L8" s="137" t="s">
-        <v>162</v>
+      <c r="K8" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="119" t="s">
+        <v>153</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O8" s="53" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P8" s="70" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="132" t="s">
-        <v>160</v>
+      <c r="C9" s="114" t="s">
+        <v>151</v>
       </c>
       <c r="D9" s="86" t="s">
         <v>19</v>
@@ -2514,7 +2514,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="86" t="s">
         <v>37</v>
@@ -2522,23 +2522,23 @@
       <c r="I9" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="139" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="137" t="s">
-        <v>162</v>
+      <c r="K9" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="119" t="s">
+        <v>153</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O9" s="54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="63" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H10" s="86" t="s">
         <v>37</v>
@@ -2566,28 +2566,28 @@
       <c r="I10" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="139" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10" s="134" t="s">
-        <v>167</v>
+      <c r="K10" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="116" t="s">
+        <v>158</v>
       </c>
       <c r="M10" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O10" s="55" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="77" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C11" s="81" t="s">
         <v>29</v>
@@ -2602,7 +2602,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H11" s="86" t="s">
         <v>37</v>
@@ -2610,28 +2610,28 @@
       <c r="I11" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="139" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" s="134" t="s">
-        <v>168</v>
+      <c r="K11" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="116" t="s">
+        <v>159</v>
       </c>
       <c r="M11" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O11" s="55" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P11" s="72" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="77" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="81" t="s">
         <v>25</v>
@@ -2654,28 +2654,28 @@
       <c r="I12" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="139" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" s="134" t="s">
-        <v>167</v>
+      <c r="K12" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="116" t="s">
+        <v>158</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O12" s="56" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P12" s="73" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="65" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C13" s="82" t="s">
         <v>28</v>
@@ -2690,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" s="87" t="s">
         <v>36</v>
@@ -2698,28 +2698,28 @@
       <c r="I13" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="139" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="134" t="s">
-        <v>168</v>
+      <c r="K13" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="116" t="s">
+        <v>159</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P13" s="74" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="66" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C14" s="82" t="s">
         <v>29</v>
@@ -2734,7 +2734,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" s="87" t="s">
         <v>37</v>
@@ -2742,28 +2742,28 @@
       <c r="I14" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="139" t="s">
-        <v>136</v>
-      </c>
-      <c r="L14" s="134" t="s">
-        <v>176</v>
+      <c r="K14" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="116" t="s">
+        <v>166</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O14" s="55" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P14" s="72" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C15" s="82" t="s">
         <v>30</v>
@@ -2778,7 +2778,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="87" t="s">
         <v>41</v>
@@ -2786,28 +2786,28 @@
       <c r="I15" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="139" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" s="134" t="s">
-        <v>175</v>
+      <c r="K15" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="116" t="s">
+        <v>165</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O15" s="55" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P15" s="72" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C16" s="82" t="s">
         <v>31</v>
@@ -2822,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H16" s="87" t="s">
         <v>41</v>
@@ -2830,28 +2830,28 @@
       <c r="I16" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="139" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" s="134" t="s">
-        <v>177</v>
+      <c r="K16" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" s="116" t="s">
+        <v>167</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O16" s="58" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="67" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C17" s="82" t="s">
         <v>32</v>
@@ -2866,7 +2866,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H17" s="87" t="s">
         <v>42</v>
@@ -2874,25 +2874,25 @@
       <c r="I17" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" s="134" t="s">
-        <v>178</v>
+      <c r="K17" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="116" t="s">
+        <v>168</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E18" s="82" t="s">
         <v>12</v>
@@ -2901,27 +2901,27 @@
         <v>11</v>
       </c>
       <c r="G18" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18" s="87" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>194</v>
-      </c>
-      <c r="K18" s="139" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="134" t="s">
-        <v>178</v>
+        <v>184</v>
+      </c>
+      <c r="K18" s="121" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="116" t="s">
+        <v>168</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C19" s="82" t="s">
         <v>33</v>
@@ -2936,7 +2936,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>43</v>
@@ -2944,19 +2944,19 @@
       <c r="I19" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="134" t="s">
-        <v>177</v>
+      <c r="K19" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" s="116" t="s">
+        <v>167</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C20" s="81" t="s">
         <v>29</v>
@@ -2971,7 +2971,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H20" s="87" t="s">
         <v>37</v>
@@ -2979,19 +2979,19 @@
       <c r="I20" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="143" t="s">
-        <v>185</v>
+      <c r="K20" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="116" t="s">
+        <v>175</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C21" s="81" t="s">
         <v>25</v>
@@ -3014,19 +3014,19 @@
       <c r="I21" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" s="143" t="s">
-        <v>186</v>
+      <c r="K21" s="121" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="116" t="s">
+        <v>176</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C22" s="82" t="s">
         <v>28</v>
@@ -3041,7 +3041,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H22" s="87" t="s">
         <v>36</v>
@@ -3049,19 +3049,19 @@
       <c r="I22" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="139" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22" s="143" t="s">
-        <v>186</v>
+      <c r="K22" s="121" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" s="116" t="s">
+        <v>176</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C23" s="82" t="s">
         <v>29</v>
@@ -3076,7 +3076,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H23" s="87" t="s">
         <v>37</v>
@@ -3084,25 +3084,25 @@
       <c r="I23" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="139" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="143" t="s">
-        <v>185</v>
+      <c r="K23" s="121" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="116" t="s">
+        <v>175</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C24" s="82" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E24" s="82" t="s">
         <v>12</v>
@@ -3111,7 +3111,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H24" s="87" t="s">
         <v>41</v>
@@ -3119,19 +3119,19 @@
       <c r="I24" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="L24" s="134" t="s">
-        <v>176</v>
+      <c r="K24" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="116" t="s">
+        <v>166</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C25" s="82" t="s">
         <v>31</v>
@@ -3146,7 +3146,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H25" s="87" t="s">
         <v>41</v>
@@ -3154,19 +3154,19 @@
       <c r="I25" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="L25" s="134" t="s">
-        <v>175</v>
+      <c r="K25" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" s="116" t="s">
+        <v>165</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C26" s="82" t="s">
         <v>32</v>
@@ -3181,7 +3181,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H26" s="87" t="s">
         <v>42</v>
@@ -3189,25 +3189,25 @@
       <c r="I26" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="141" t="s">
-        <v>142</v>
-      </c>
-      <c r="L26" s="143" t="s">
-        <v>184</v>
+      <c r="K26" s="121" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" s="116" t="s">
+        <v>174</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E27" s="82" t="s">
         <v>12</v>
@@ -3216,27 +3216,27 @@
         <v>11</v>
       </c>
       <c r="G27" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H27" s="87" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>194</v>
-      </c>
-      <c r="K27" s="141" t="s">
-        <v>144</v>
-      </c>
-      <c r="L27" s="143" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+      <c r="K27" s="121" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C28" s="82" t="s">
         <v>33</v>
@@ -3251,7 +3251,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H28" s="87" t="s">
         <v>43</v>
@@ -3259,19 +3259,19 @@
       <c r="I28" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="141" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="143" t="s">
-        <v>183</v>
+      <c r="K28" s="121" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" s="116" t="s">
+        <v>173</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="52" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C29" s="82" t="s">
         <v>33</v>
@@ -3286,7 +3286,7 @@
         <v>55</v>
       </c>
       <c r="G29" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H29" s="87" t="s">
         <v>43</v>
@@ -3294,25 +3294,25 @@
       <c r="I29" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="141" t="s">
-        <v>150</v>
-      </c>
-      <c r="L29" s="143" t="s">
-        <v>179</v>
+      <c r="K29" s="121" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="52" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C30" s="82" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" s="82" t="s">
         <v>13</v>
@@ -3321,7 +3321,7 @@
         <v>55</v>
       </c>
       <c r="G30" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H30" s="87" t="s">
         <v>43</v>
@@ -3329,19 +3329,19 @@
       <c r="I30" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="L30" s="134" t="s">
-        <v>187</v>
+      <c r="K30" s="121" t="s">
+        <v>170</v>
+      </c>
+      <c r="L30" s="116" t="s">
+        <v>177</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="82" t="s">
         <v>25</v>
@@ -3364,19 +3364,19 @@
       <c r="I31" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="141" t="s">
-        <v>108</v>
-      </c>
-      <c r="L31" s="134" t="s">
-        <v>188</v>
+      <c r="K31" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31" s="116" t="s">
+        <v>178</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="82" t="s">
         <v>29</v>
@@ -3399,25 +3399,25 @@
       <c r="I32" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="139" t="s">
-        <v>181</v>
-      </c>
-      <c r="L32" s="134" t="s">
-        <v>189</v>
+      <c r="K32" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="L32" s="116" t="s">
+        <v>179</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" s="82" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="82" t="s">
         <v>13</v>
@@ -3426,7 +3426,7 @@
         <v>55</v>
       </c>
       <c r="G33" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H33" s="87" t="s">
         <v>43</v>
@@ -3434,19 +3434,19 @@
       <c r="I33" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="139" t="s">
-        <v>105</v>
-      </c>
-      <c r="L33" s="135" t="s">
-        <v>190</v>
+      <c r="K33" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="L33" s="117" t="s">
+        <v>180</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" s="82" t="s">
         <v>25</v>
@@ -3469,19 +3469,19 @@
       <c r="I34" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="142" t="s">
-        <v>153</v>
-      </c>
-      <c r="L34" s="144" t="s">
-        <v>196</v>
+      <c r="K34" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="L34" s="124" t="s">
+        <v>186</v>
       </c>
       <c r="M34" s="25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="82" t="s">
         <v>29</v>
@@ -3507,13 +3507,13 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C36" s="82" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="87" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E36" s="82" t="s">
         <v>13</v>
@@ -3522,7 +3522,7 @@
         <v>53</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H36" s="87" t="s">
         <v>43</v>
@@ -3534,13 +3534,13 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="132" t="s">
-        <v>158</v>
+        <v>195</v>
+      </c>
+      <c r="C37" s="114" t="s">
+        <v>149</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E37" s="82" t="s">
         <v>13</v>
@@ -3549,7 +3549,7 @@
         <v>34</v>
       </c>
       <c r="G37" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H37" s="87" t="s">
         <v>36</v>
@@ -3560,14 +3560,14 @@
       <c r="M37" s="31"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="132" t="s">
-        <v>171</v>
+      <c r="B38" s="79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="114" t="s">
+        <v>149</v>
       </c>
       <c r="D38" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="82" t="s">
         <v>13</v>
@@ -3576,7 +3576,7 @@
         <v>50</v>
       </c>
       <c r="G38" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H38" s="87" t="s">
         <v>36</v>
@@ -3587,14 +3587,14 @@
       <c r="M38" s="31"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="132" t="s">
-        <v>158</v>
+      <c r="B39" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="114" t="s">
+        <v>149</v>
       </c>
       <c r="D39" s="88" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E39" s="83" t="s">
         <v>13</v>
@@ -3603,7 +3603,7 @@
         <v>34</v>
       </c>
       <c r="G39" s="83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H39" s="88" t="s">
         <v>36</v>
@@ -3615,13 +3615,13 @@
     </row>
     <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="133" t="s">
-        <v>171</v>
+        <v>198</v>
+      </c>
+      <c r="C40" s="115" t="s">
+        <v>149</v>
       </c>
       <c r="D40" s="89" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E40" s="84" t="s">
         <v>13</v>
@@ -3630,7 +3630,7 @@
         <v>50</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H40" s="89" t="s">
         <v>36</v>
@@ -3889,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A484A0-15AF-44A1-BE8B-ECFED38A64CF}">
   <dimension ref="C2:W64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3914,48 +3914,48 @@
   <sheetData>
     <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="121"/>
-      <c r="L3" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="114"/>
-      <c r="N3" s="115"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="133"/>
+      <c r="L3" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="126"/>
+      <c r="N3" s="127"/>
       <c r="O3" s="44"/>
-      <c r="P3" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="115"/>
+      <c r="P3" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="127"/>
       <c r="S3" s="32"/>
       <c r="U3" s="49"/>
       <c r="V3" s="49"/>
       <c r="W3" s="49"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="124"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="118"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="136"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="130"/>
       <c r="O4" s="44"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="118"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="130"/>
       <c r="S4" s="32"/>
       <c r="U4" s="49"/>
       <c r="V4" s="49"/>
@@ -3987,23 +3987,23 @@
         <v>8</v>
       </c>
       <c r="L5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>69</v>
       </c>
       <c r="O5" s="45"/>
       <c r="P5" s="50" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R5" s="59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S5" s="33"/>
       <c r="U5" s="48"/>
@@ -4020,23 +4020,23 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
       <c r="L6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="M6" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="O6" s="43"/>
       <c r="P6" s="51" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="68" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R6" s="60" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S6" s="34"/>
       <c r="U6" s="28"/>
@@ -4053,23 +4053,23 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
       <c r="L7" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M7" s="96" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O7" s="43"/>
       <c r="P7" s="52" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="69" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R7" s="61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S7" s="34"/>
       <c r="U7" s="28"/>
@@ -4086,23 +4086,23 @@
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
       <c r="L8" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M8" s="96" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O8" s="43"/>
       <c r="P8" s="53" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="70" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R8" s="62" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S8" s="34"/>
       <c r="U8" s="28"/>
@@ -4119,23 +4119,23 @@
       <c r="I9" s="6"/>
       <c r="J9" s="7"/>
       <c r="L9" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M9" s="96" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O9" s="43"/>
       <c r="P9" s="54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="71" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R9" s="63" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S9" s="34"/>
     </row>
@@ -4149,23 +4149,23 @@
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
       <c r="L10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="M10" s="96" t="s">
-        <v>99</v>
-      </c>
       <c r="N10" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="72" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R10" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S10" s="35"/>
     </row>
@@ -4179,23 +4179,23 @@
       <c r="I11" s="6"/>
       <c r="J11" s="7"/>
       <c r="L11" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M11" s="96" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O11" s="39"/>
       <c r="P11" s="54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="72" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R11" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S11" s="35"/>
     </row>
@@ -4209,23 +4209,23 @@
       <c r="I12" s="6"/>
       <c r="J12" s="7"/>
       <c r="L12" s="14" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="M12" s="96" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O12" s="39"/>
       <c r="P12" s="54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q12" s="73" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="R12" s="65" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S12" s="35"/>
     </row>
@@ -4239,23 +4239,23 @@
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="L13" s="14" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="M13" s="96" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O13" s="39"/>
       <c r="P13" s="57" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="74" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R13" s="66" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S13" s="35"/>
     </row>
@@ -4269,23 +4269,23 @@
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="L14" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M14" s="96" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="55" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="72" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R14" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S14" s="35"/>
     </row>
@@ -4299,23 +4299,23 @@
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
       <c r="L15" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M15" s="96" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="O15" s="39"/>
       <c r="P15" s="55" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="Q15" s="72" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R15" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S15" s="35"/>
     </row>
@@ -4333,13 +4333,13 @@
       <c r="N16" s="41"/>
       <c r="O16" s="35"/>
       <c r="P16" s="58" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="75" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="R16" s="67" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S16" s="35"/>
     </row>
@@ -4353,7 +4353,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="L17" s="97" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
@@ -4871,8 +4871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
   <dimension ref="B2:Q25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4892,42 +4892,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121"/>
-      <c r="K3" s="113" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115"/>
-      <c r="O3" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="115"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="133"/>
+      <c r="K3" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="126"/>
+      <c r="M3" s="127"/>
+      <c r="O3" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="127"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="118"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="118"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="136"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="130"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="130"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -4955,22 +4955,22 @@
         <v>8</v>
       </c>
       <c r="K5" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" s="99" t="s">
+      <c r="O5" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" s="112" t="s">
-        <v>71</v>
-      </c>
       <c r="Q5" s="59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4978,20 +4978,20 @@
         <v>9</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D6" s="85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="80" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="80" t="s">
-        <v>76</v>
-      </c>
       <c r="H6" s="85" t="s">
         <v>11</v>
       </c>
@@ -4999,22 +4999,22 @@
         <v>11</v>
       </c>
       <c r="K6" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="M6" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="M6" s="102" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" s="51" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P6" s="68" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="60" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -5022,10 +5022,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="81" t="s">
         <v>10</v>
@@ -5034,7 +5034,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="86" t="s">
         <v>37</v>
@@ -5043,27 +5043,27 @@
         <v>38</v>
       </c>
       <c r="K7" s="103" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L7" s="104" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M7" s="105" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O7" s="52" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P7" s="69" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="77" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C8" s="81" t="s">
         <v>25</v>
@@ -5087,33 +5087,33 @@
         <v>27</v>
       </c>
       <c r="K8" s="106" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L8" s="107" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M8" s="108" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O8" s="53" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P8" s="70" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C9" s="82" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="82" t="s">
         <v>24</v>
@@ -5122,7 +5122,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="87" t="s">
         <v>36</v>
@@ -5131,42 +5131,42 @@
         <v>14</v>
       </c>
       <c r="K9" s="103" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L9" s="87" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M9" s="108" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O9" s="54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P9" s="71" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="63" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="77" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C10" s="81" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="81" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="86" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H10" s="86" t="s">
         <v>37</v>
@@ -5175,33 +5175,33 @@
         <v>38</v>
       </c>
       <c r="K10" s="103" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L10" s="87" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M10" s="109" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O10" s="54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C11" s="82" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="82" t="s">
         <v>12</v>
@@ -5210,42 +5210,42 @@
         <v>11</v>
       </c>
       <c r="G11" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H11" s="87" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I11" s="92" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="103" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L11" s="87" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M11" s="109" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P11" s="72" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C12" s="82" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="82" t="s">
         <v>40</v>
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H12" s="87" t="s">
         <v>41</v>
@@ -5263,33 +5263,33 @@
         <v>45</v>
       </c>
       <c r="K12" s="103" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="L12" s="87" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="M12" s="109" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O12" s="54" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="P12" s="73" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="65" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C13" s="82" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="82" t="s">
         <v>40</v>
@@ -5298,7 +5298,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H13" s="87" t="s">
         <v>42</v>
@@ -5307,33 +5307,33 @@
         <v>47</v>
       </c>
       <c r="K13" s="103" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="L13" s="87" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M13" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="O13" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="P13" s="74" t="s">
-        <v>121</v>
-      </c>
       <c r="Q13" s="66" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="52" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C14" s="82" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="82" t="s">
         <v>13</v>
@@ -5342,7 +5342,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" s="87" t="s">
         <v>43</v>
@@ -5351,42 +5351,42 @@
         <v>49</v>
       </c>
       <c r="K14" s="103" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L14" s="87" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M14" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="O14" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="64" t="s">
         <v>118</v>
-      </c>
-      <c r="O14" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="P14" s="72" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q14" s="64" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="82" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="82" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="87" t="s">
         <v>43</v>
@@ -5395,42 +5395,42 @@
         <v>49</v>
       </c>
       <c r="K15" s="110" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L15" s="89" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M15" s="111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="O15" s="55" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P15" s="72" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="64" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="82" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="82" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H16" s="87" t="s">
         <v>43</v>
@@ -5440,33 +5440,33 @@
       </c>
       <c r="M16" s="22"/>
       <c r="O16" s="58" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P16" s="75" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="67" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="52" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="C17" s="82" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D17" s="95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="82" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H17" s="87" t="s">
         <v>36</v>
@@ -5478,22 +5478,22 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="52" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="C18" s="82" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="82" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" s="81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H18" s="87" t="s">
         <v>36</v>
@@ -5505,22 +5505,22 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="82" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E19" s="82" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>41</v>
@@ -5532,22 +5532,22 @@
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D20" s="89" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E20" s="84" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H20" s="89" t="s">
         <v>41</v>

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2489D001-680E-493E-B49A-CB3718F4A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65A243-8D69-48DE-8576-7F8C18150DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
   <sheets>
     <sheet name="The_Marathon" sheetId="1" r:id="rId1"/>
@@ -2262,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,7 +4871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
   <dimension ref="B2:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F3389D-131F-4F83-B379-E0415D7D735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FC8D71-DEFC-48CD-99AE-4B4523C65ECC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
@@ -1660,60 +1660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1745,6 +1691,90 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1754,43 +1784,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2131,42 +2131,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
-      <c r="K3" s="96" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
+      <c r="K3" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="97"/>
-      <c r="M3" s="98"/>
-      <c r="O3" s="84" t="s">
+      <c r="L3" s="123"/>
+      <c r="M3" s="124"/>
+      <c r="O3" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="86"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="112"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="117"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="89"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="127"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="115"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -2193,13 +2193,13 @@
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="118" t="s">
+      <c r="K5" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="118" t="s">
+      <c r="L5" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="119" t="s">
+      <c r="M5" s="98" t="s">
         <v>67</v>
       </c>
       <c r="O5" s="21" t="s">
@@ -2237,13 +2237,13 @@
       <c r="I6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="120" t="s">
+      <c r="K6" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="121" t="s">
+      <c r="L6" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="M6" s="122" t="s">
+      <c r="M6" s="101" t="s">
         <v>78</v>
       </c>
       <c r="O6" s="22" t="s">
@@ -2281,13 +2281,13 @@
       <c r="I7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="123" t="s">
+      <c r="K7" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="125" t="s">
+      <c r="M7" s="104" t="s">
         <v>78</v>
       </c>
       <c r="O7" s="23" t="s">
@@ -2325,13 +2325,13 @@
       <c r="I8" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="126" t="s">
+      <c r="K8" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="124" t="s">
+      <c r="L8" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="M8" s="122" t="s">
+      <c r="M8" s="101" t="s">
         <v>203</v>
       </c>
       <c r="O8" s="24" t="s">
@@ -2369,13 +2369,13 @@
       <c r="I9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="123" t="s">
+      <c r="K9" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="124" t="s">
+      <c r="L9" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="M9" s="122" t="s">
+      <c r="M9" s="101" t="s">
         <v>203</v>
       </c>
       <c r="O9" s="25" t="s">
@@ -2413,13 +2413,13 @@
       <c r="I10" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="123" t="s">
+      <c r="K10" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="L10" s="127" t="s">
+      <c r="L10" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="M10" s="105" t="s">
+      <c r="M10" s="87" t="s">
         <v>195</v>
       </c>
       <c r="O10" s="26" t="s">
@@ -2457,13 +2457,13 @@
       <c r="I11" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="123" t="s">
+      <c r="K11" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="127" t="s">
+      <c r="L11" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="M11" s="105" t="s">
+      <c r="M11" s="87" t="s">
         <v>195</v>
       </c>
       <c r="O11" s="26" t="s">
@@ -2501,13 +2501,13 @@
       <c r="I12" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="127" t="s">
+      <c r="L12" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="M12" s="105" t="s">
+      <c r="M12" s="87" t="s">
         <v>195</v>
       </c>
       <c r="O12" s="27" t="s">
@@ -2545,13 +2545,13 @@
       <c r="I13" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="123" t="s">
+      <c r="K13" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="L13" s="127" t="s">
+      <c r="L13" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="M13" s="105" t="s">
+      <c r="M13" s="87" t="s">
         <v>195</v>
       </c>
       <c r="O13" s="28" t="s">
@@ -2589,13 +2589,13 @@
       <c r="I14" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="123" t="s">
+      <c r="K14" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="L14" s="127" t="s">
+      <c r="L14" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="106" t="s">
+      <c r="M14" s="88" t="s">
         <v>207</v>
       </c>
       <c r="O14" s="26" t="s">
@@ -2633,13 +2633,13 @@
       <c r="I15" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="123" t="s">
+      <c r="K15" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="127" t="s">
+      <c r="L15" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M15" s="106" t="s">
+      <c r="M15" s="88" t="s">
         <v>207</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -2677,13 +2677,13 @@
       <c r="I16" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="123" t="s">
+      <c r="K16" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="L16" s="127" t="s">
+      <c r="L16" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="106" t="s">
+      <c r="M16" s="88" t="s">
         <v>207</v>
       </c>
       <c r="O16" s="29" t="s">
@@ -2721,13 +2721,13 @@
       <c r="I17" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="123" t="s">
+      <c r="K17" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="127" t="s">
+      <c r="L17" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="M17" s="106" t="s">
+      <c r="M17" s="88" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2756,13 +2756,13 @@
       <c r="I18" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="K18" s="123" t="s">
+      <c r="K18" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="L18" s="127" t="s">
+      <c r="L18" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="M18" s="106" t="s">
+      <c r="M18" s="88" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2791,13 +2791,13 @@
       <c r="I19" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="123" t="s">
+      <c r="K19" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="L19" s="127" t="s">
+      <c r="L19" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="106" t="s">
+      <c r="M19" s="88" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2826,10 +2826,10 @@
       <c r="I20" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="123" t="s">
+      <c r="K20" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="127" t="s">
+      <c r="L20" s="106" t="s">
         <v>152</v>
       </c>
       <c r="M20" s="78" t="s">
@@ -2861,10 +2861,10 @@
       <c r="I21" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="123" t="s">
+      <c r="K21" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="127" t="s">
+      <c r="L21" s="106" t="s">
         <v>153</v>
       </c>
       <c r="M21" s="78" t="s">
@@ -2896,10 +2896,10 @@
       <c r="I22" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="123" t="s">
+      <c r="K22" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="127" t="s">
+      <c r="L22" s="106" t="s">
         <v>153</v>
       </c>
       <c r="M22" s="78" t="s">
@@ -2931,10 +2931,10 @@
       <c r="I23" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="123" t="s">
+      <c r="K23" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="L23" s="127" t="s">
+      <c r="L23" s="106" t="s">
         <v>152</v>
       </c>
       <c r="M23" s="78" t="s">
@@ -2966,13 +2966,13 @@
       <c r="I24" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="123" t="s">
+      <c r="K24" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="L24" s="127" t="s">
+      <c r="L24" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="M24" s="106" t="s">
+      <c r="M24" s="88" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3001,13 +3001,13 @@
       <c r="I25" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="123" t="s">
+      <c r="K25" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="L25" s="127" t="s">
+      <c r="L25" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="M25" s="106" t="s">
+      <c r="M25" s="88" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3036,10 +3036,10 @@
       <c r="I26" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="123" t="s">
+      <c r="K26" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="L26" s="127" t="s">
+      <c r="L26" s="106" t="s">
         <v>151</v>
       </c>
       <c r="M26" s="78" t="s">
@@ -3071,10 +3071,10 @@
       <c r="I27" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="K27" s="123" t="s">
+      <c r="K27" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="L27" s="127" t="s">
+      <c r="L27" s="106" t="s">
         <v>147</v>
       </c>
       <c r="M27" s="78" t="s">
@@ -3106,10 +3106,10 @@
       <c r="I28" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="123" t="s">
+      <c r="K28" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="L28" s="127" t="s">
+      <c r="L28" s="106" t="s">
         <v>150</v>
       </c>
       <c r="M28" s="78" t="s">
@@ -3141,10 +3141,10 @@
       <c r="I29" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="123" t="s">
+      <c r="K29" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="L29" s="127" t="s">
+      <c r="L29" s="106" t="s">
         <v>147</v>
       </c>
       <c r="M29" s="78" t="s">
@@ -3176,13 +3176,13 @@
       <c r="I30" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="123" t="s">
+      <c r="K30" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="L30" s="127" t="s">
+      <c r="L30" s="106" t="s">
         <v>154</v>
       </c>
-      <c r="M30" s="106" t="s">
+      <c r="M30" s="88" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3211,13 +3211,13 @@
       <c r="I31" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="123" t="s">
+      <c r="K31" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="L31" s="127" t="s">
+      <c r="L31" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="M31" s="105" t="s">
+      <c r="M31" s="87" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3246,13 +3246,13 @@
       <c r="I32" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="123" t="s">
+      <c r="K32" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="L32" s="127" t="s">
+      <c r="L32" s="106" t="s">
         <v>156</v>
       </c>
-      <c r="M32" s="106" t="s">
+      <c r="M32" s="88" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3281,13 +3281,13 @@
       <c r="I33" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="123" t="s">
+      <c r="K33" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="L33" s="128" t="s">
+      <c r="L33" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="M33" s="106" t="s">
+      <c r="M33" s="88" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3316,13 +3316,13 @@
       <c r="I34" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="129" t="s">
+      <c r="K34" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="L34" s="130" t="s">
+      <c r="L34" s="109" t="s">
         <v>163</v>
       </c>
-      <c r="M34" s="107" t="s">
+      <c r="M34" s="89" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
   <dimension ref="C2:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,48 +3753,48 @@
   <sheetData>
     <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="92"/>
-      <c r="L3" s="96" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="118"/>
+      <c r="L3" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
       <c r="O3" s="17"/>
-      <c r="P3" s="84" t="s">
+      <c r="P3" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="112"/>
       <c r="S3" s="5"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="101"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="121"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="130"/>
       <c r="O4" s="17"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="89"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="115"/>
       <c r="S4" s="5"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
@@ -3825,13 +3825,13 @@
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="102" t="s">
+      <c r="L5" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="102" t="s">
+      <c r="M5" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="103" t="s">
+      <c r="N5" s="85" t="s">
         <v>67</v>
       </c>
       <c r="O5" s="18"/>
@@ -3874,13 +3874,13 @@
       <c r="J6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="108" t="s">
+      <c r="L6" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="112" t="s">
+      <c r="M6" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="N6" s="104" t="s">
+      <c r="N6" s="86" t="s">
         <v>78</v>
       </c>
       <c r="O6" s="16"/>
@@ -3923,13 +3923,13 @@
       <c r="J7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="109" t="s">
+      <c r="L7" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="M7" s="113" t="s">
+      <c r="M7" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="N7" s="105" t="s">
+      <c r="N7" s="87" t="s">
         <v>204</v>
       </c>
       <c r="O7" s="16"/>
@@ -3972,13 +3972,13 @@
       <c r="J8" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="110" t="s">
+      <c r="L8" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="113" t="s">
+      <c r="M8" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="N8" s="105" t="s">
+      <c r="N8" s="87" t="s">
         <v>192</v>
       </c>
       <c r="O8" s="16"/>
@@ -4021,13 +4021,13 @@
       <c r="J9" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="109" t="s">
+      <c r="L9" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="M9" s="113" t="s">
+      <c r="M9" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="105" t="s">
+      <c r="N9" s="87" t="s">
         <v>193</v>
       </c>
       <c r="O9" s="16"/>
@@ -4067,13 +4067,13 @@
       <c r="J10" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="109" t="s">
+      <c r="L10" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="M10" s="113" t="s">
+      <c r="M10" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="N10" s="106" t="s">
+      <c r="N10" s="88" t="s">
         <v>194</v>
       </c>
       <c r="O10" s="12"/>
@@ -4113,13 +4113,13 @@
       <c r="J11" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="109" t="s">
+      <c r="L11" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="M11" s="113" t="s">
+      <c r="M11" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="N11" s="106" t="s">
+      <c r="N11" s="88" t="s">
         <v>195</v>
       </c>
       <c r="O11" s="12"/>
@@ -4159,13 +4159,13 @@
       <c r="J12" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="109" t="s">
+      <c r="L12" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="M12" s="113" t="s">
+      <c r="M12" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="N12" s="106" t="s">
+      <c r="N12" s="88" t="s">
         <v>195</v>
       </c>
       <c r="O12" s="12"/>
@@ -4205,13 +4205,13 @@
       <c r="J13" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="109" t="s">
+      <c r="L13" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="113" t="s">
+      <c r="M13" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="106" t="s">
+      <c r="N13" s="88" t="s">
         <v>196</v>
       </c>
       <c r="O13" s="12"/>
@@ -4251,13 +4251,13 @@
       <c r="J14" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="109" t="s">
+      <c r="L14" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="M14" s="113" t="s">
+      <c r="M14" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="N14" s="106" t="s">
+      <c r="N14" s="88" t="s">
         <v>197</v>
       </c>
       <c r="O14" s="12"/>
@@ -4297,13 +4297,13 @@
       <c r="J15" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="111" t="s">
+      <c r="L15" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="M15" s="114" t="s">
+      <c r="M15" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="N15" s="107" t="s">
+      <c r="N15" s="89" t="s">
         <v>198</v>
       </c>
       <c r="O15" s="12"/>
@@ -4609,42 +4609,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
-      <c r="K3" s="84" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="118"/>
+      <c r="K3" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="86"/>
-      <c r="O3" s="84" t="s">
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+      <c r="O3" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="86"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="112"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="89"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="121"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="115"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="115"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -5073,7 +5073,7 @@
       <c r="L14" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="M14" s="106" t="s">
+      <c r="M14" s="88" t="s">
         <v>197</v>
       </c>
       <c r="O14" s="26" t="s">
@@ -5117,7 +5117,7 @@
       <c r="L15" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="M15" s="107" t="s">
+      <c r="M15" s="89" t="s">
         <v>198</v>
       </c>
       <c r="O15" s="26" t="s">

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FC8D71-DEFC-48CD-99AE-4B4523C65ECC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6891C5A3-5DCA-4738-A30F-B6A712525AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
   <sheets>
     <sheet name="The_Marathon" sheetId="1" r:id="rId1"/>
@@ -1778,7 +1778,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I21"/>
+    <sheetView tabSelected="1" topLeftCell="I25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,7 +2122,7 @@
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="55.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
@@ -3728,7 +3728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A484A0-15AF-44A1-BE8B-ECFED38A64CF}">
   <dimension ref="C2:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6891C5A3-5DCA-4738-A30F-B6A712525AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA842AA-03FC-44CD-8D68-C3FF3EA5AD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
   <sheets>
     <sheet name="The_Marathon" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="243">
   <si>
     <t>Az eszközök interfészein szereplő IP címeket szemléltető táblázat</t>
   </si>
@@ -293,12 +293,6 @@
     <t>10.30.40.3</t>
   </si>
   <si>
-    <t>AD1</t>
-  </si>
-  <si>
-    <t>AD2</t>
-  </si>
-  <si>
     <t>ML-SW1 -&gt; SW1</t>
   </si>
   <si>
@@ -329,12 +323,6 @@
     <t>Titok2023</t>
   </si>
   <si>
-    <t>10.30.66.253</t>
-  </si>
-  <si>
-    <t>10.30.66.254</t>
-  </si>
-  <si>
     <t>10.10.93.7</t>
   </si>
   <si>
@@ -359,12 +347,6 @@
     <t>R2 -&gt; ML-SW2</t>
   </si>
   <si>
-    <t>ML-SW2 -&gt; AD3</t>
-  </si>
-  <si>
-    <t>ML-SW2 -&gt; AD4</t>
-  </si>
-  <si>
     <t>ML-SW1 -&gt; ML-SW2</t>
   </si>
   <si>
@@ -722,10 +704,58 @@
     <t>10.20.3.253</t>
   </si>
   <si>
-    <t>10.20.66.253</t>
-  </si>
-  <si>
-    <t>10.20.66.254</t>
+    <t>ML-SW2 -&gt; AP3</t>
+  </si>
+  <si>
+    <t>ML-SW2 -&gt; AP4</t>
+  </si>
+  <si>
+    <t>AP1</t>
+  </si>
+  <si>
+    <t>AP2</t>
+  </si>
+  <si>
+    <t>AP3</t>
+  </si>
+  <si>
+    <t>AP4</t>
+  </si>
+  <si>
+    <t>ether1</t>
+  </si>
+  <si>
+    <t>10.10.66.4</t>
+  </si>
+  <si>
+    <t>10.10.66.5</t>
+  </si>
+  <si>
+    <t>10.10.66.6</t>
+  </si>
+  <si>
+    <t>10.10.66.7</t>
+  </si>
+  <si>
+    <t>10.10.66.3</t>
+  </si>
+  <si>
+    <t>10.20.66.2</t>
+  </si>
+  <si>
+    <t>10.20.66.3</t>
+  </si>
+  <si>
+    <t>10.30.66.2</t>
+  </si>
+  <si>
+    <t>10.30.66.3</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Windows Kliensek</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1519,9 +1549,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1567,10 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1580,9 +1603,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1595,9 +1615,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1608,9 +1625,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1651,15 +1665,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1730,6 +1735,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1792,6 +1866,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2109,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,42 +2214,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
-      <c r="K3" s="122" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="132"/>
+      <c r="K3" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="O3" s="110" t="s">
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
+      <c r="O3" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="112"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="126"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="127"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="115"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="141"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="129"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -2193,1336 +2276,1409 @@
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="97" t="s">
+      <c r="K5" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="97" t="s">
+      <c r="L5" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="98" t="s">
+      <c r="M5" s="89" t="s">
         <v>67</v>
       </c>
       <c r="O5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="92" t="s">
+        <v>197</v>
+      </c>
+      <c r="O9" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="81" t="s">
+      <c r="P9" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="L13" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="O13" s="145" t="s">
+        <v>242</v>
+      </c>
+      <c r="P13" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q13" s="147" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18" s="79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" s="79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="M23" s="72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" s="79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="110" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="100" t="s">
+      <c r="M27" s="72" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" s="72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="72" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="M6" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="22" t="s">
+      <c r="L30" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="M30" s="79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="M31" s="78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" s="79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="L33" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="M33" s="79" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="L34" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="M34" s="80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="P6" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" s="31" t="s">
+      <c r="D37" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="122" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="122" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="112" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="103" t="s">
-        <v>142</v>
-      </c>
-      <c r="M7" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="105" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="M8" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="M9" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="P9" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="P11" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="P12" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="53" t="s">
+      <c r="E40" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="58" t="s">
+      <c r="F40" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I40" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="102" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="O13" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="P13" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P14" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="58" t="s">
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="C41" s="109" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="110" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="110" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="106" t="s">
-        <v>143</v>
-      </c>
-      <c r="M15" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P15" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="53" t="s">
+      <c r="I41" s="116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="111" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="109" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="58" t="s">
+      <c r="F42" s="110" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I42" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="P16" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="53" t="s">
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="111" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="109" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" s="110" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="M17" s="88" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="K18" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="M18" s="88" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="L19" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="M19" s="88" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" s="78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="M21" s="78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="M22" s="78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="M23" s="78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="58" t="s">
+      <c r="F43" s="110" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="M24" s="88" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="53" t="s">
+      <c r="I43" s="116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="123" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" s="117" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="58" t="s">
+      <c r="F44" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="63" t="s">
+      <c r="I44" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="L25" s="106" t="s">
-        <v>143</v>
-      </c>
-      <c r="M25" s="88" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="102" t="s">
-        <v>168</v>
-      </c>
-      <c r="L26" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="M26" s="78" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="I27" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="K27" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="L27" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="M27" s="78" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="L28" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="M28" s="78" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="L29" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="M29" s="78" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="L30" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="M30" s="88" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="L31" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="M31" s="87" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="L32" s="106" t="s">
-        <v>156</v>
-      </c>
-      <c r="M32" s="88" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="M33" s="88" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="L34" s="109" t="s">
-        <v>163</v>
-      </c>
-      <c r="M34" s="89" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C38" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="63" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -3728,8 +3884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A484A0-15AF-44A1-BE8B-ECFED38A64CF}">
   <dimension ref="C2:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,48 +3909,48 @@
   <sheetData>
     <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="118"/>
-      <c r="L3" s="122" t="s">
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="132"/>
+      <c r="L3" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="138"/>
       <c r="O3" s="17"/>
-      <c r="P3" s="110" t="s">
+      <c r="P3" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="112"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="126"/>
       <c r="S3" s="5"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="121"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="130"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="135"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="144"/>
       <c r="O4" s="17"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="115"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="129"/>
       <c r="S4" s="5"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
@@ -3825,23 +3981,23 @@
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="84" t="s">
+      <c r="M5" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="85" t="s">
+      <c r="N5" s="76" t="s">
         <v>67</v>
       </c>
       <c r="O5" s="18"/>
       <c r="P5" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q5" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="R5" s="30" t="s">
+      <c r="R5" s="29" t="s">
         <v>70</v>
       </c>
       <c r="S5" s="6"/>
@@ -3850,48 +4006,48 @@
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="51" t="s">
+      <c r="D6" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="90" t="s">
+      <c r="G6" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="86" t="s">
+      <c r="M6" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="77" t="s">
         <v>78</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q6" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="30" t="s">
         <v>97</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>99</v>
       </c>
       <c r="S6" s="7"/>
       <c r="U6" s="3"/>
@@ -3899,48 +4055,48 @@
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="52" t="s">
+      <c r="D7" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="M7" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="N7" s="87" t="s">
-        <v>204</v>
+      <c r="G7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>198</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q7" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="S7" s="7"/>
       <c r="U7" s="3"/>
@@ -3948,48 +4104,48 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="52" t="s">
+      <c r="C8" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="M8" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="N8" s="87" t="s">
-        <v>192</v>
+      <c r="G8" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="M8" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="N8" s="78" t="s">
+        <v>186</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q8" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="33" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="S8" s="7"/>
       <c r="U8" s="3"/>
@@ -3998,422 +4154,428 @@
     </row>
     <row r="9" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C9" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="J9" s="63" t="s">
+      <c r="G9" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="M9" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="N9" s="87" t="s">
-        <v>193</v>
+      <c r="L9" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="N9" s="78" t="s">
+        <v>187</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q9" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="33" t="s">
         <v>97</v>
-      </c>
-      <c r="R9" s="34" t="s">
-        <v>99</v>
       </c>
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="J10" s="62" t="s">
+      <c r="G10" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="M10" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="N10" s="88" t="s">
-        <v>194</v>
+      <c r="L10" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="M10" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="N10" s="79" t="s">
+        <v>188</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>99</v>
+        <v>123</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="J11" s="63" t="s">
+      <c r="G11" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="J11" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="91" t="s">
-        <v>184</v>
-      </c>
-      <c r="M11" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="N11" s="88" t="s">
-        <v>195</v>
+      <c r="L11" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="N11" s="79" t="s">
+        <v>189</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q11" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="R11" s="35" t="s">
-        <v>99</v>
+        <v>123</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12" s="52" t="s">
+    <row r="12" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" s="95" t="s">
-        <v>187</v>
-      </c>
-      <c r="N12" s="88" t="s">
-        <v>195</v>
+      <c r="G12" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="M12" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="79" t="s">
+        <v>189</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q12" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>99</v>
+        <v>123</v>
+      </c>
+      <c r="Q12" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="3:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="H13" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="M13" s="95" t="s">
-        <v>188</v>
-      </c>
-      <c r="N13" s="88" t="s">
-        <v>196</v>
+      <c r="G13" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="N13" s="79" t="s">
+        <v>190</v>
       </c>
       <c r="O13" s="12"/>
-      <c r="P13" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q13" s="45" t="s">
+      <c r="P13" s="145" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q13" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="R13" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="R13" s="37" t="s">
-        <v>99</v>
-      </c>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>230</v>
-      </c>
-      <c r="F14" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="J14" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="91" t="s">
-        <v>189</v>
-      </c>
-      <c r="M14" s="95" t="s">
-        <v>190</v>
-      </c>
-      <c r="N14" s="88" t="s">
-        <v>197</v>
+      <c r="G14" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="N14" s="79" t="s">
+        <v>191</v>
       </c>
       <c r="O14" s="12"/>
-      <c r="P14" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q14" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="R14" s="35" t="s">
-        <v>99</v>
+      <c r="P14" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="57" t="s">
+      <c r="E15" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="M15" s="96" t="s">
-        <v>191</v>
-      </c>
-      <c r="N15" s="89" t="s">
-        <v>198</v>
+      <c r="L15" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="N15" s="80" t="s">
+        <v>192</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q15" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="R15" s="35" t="s">
-        <v>99</v>
+      <c r="R15" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="3:23" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="52" t="s">
+    <row r="16" spans="3:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="57" t="s">
+      <c r="E16" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="62" t="s">
+      <c r="J16" s="57" t="s">
         <v>38</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="8"/>
-      <c r="P16" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="R16" s="38" t="s">
-        <v>99</v>
+      <c r="P16" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="3:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" s="53" t="s">
+      <c r="E17" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="63" t="s">
+      <c r="G17" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="58" t="s">
         <v>44</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="8"/>
+      <c r="P17" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>97</v>
+      </c>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C18" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="F18" s="53" t="s">
+      <c r="E18" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="58" t="s">
+      <c r="G18" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="58" t="s">
         <v>45</v>
       </c>
       <c r="L18" s="9"/>
@@ -4427,27 +4589,27 @@
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="F19" s="53" t="s">
+      <c r="E19" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="58" t="s">
+      <c r="G19" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="58" t="s">
         <v>47</v>
       </c>
       <c r="L19" s="9"/>
@@ -4461,27 +4623,27 @@
     </row>
     <row r="20" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" s="53" t="s">
+      <c r="E20" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="58" t="s">
+      <c r="G20" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="63" t="s">
+      <c r="J20" s="58" t="s">
         <v>49</v>
       </c>
       <c r="L20" s="9"/>
@@ -4497,77 +4659,77 @@
       <c r="C21" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="58" t="s">
-        <v>228</v>
-      </c>
-      <c r="F21" s="53" t="s">
+      <c r="E21" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="58" t="s">
+      <c r="G21" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="58" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="F22" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="H22" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="58" t="s">
+      <c r="G22" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="58" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="F23" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="60" t="s">
+      <c r="G23" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="65" t="s">
+      <c r="J23" s="59" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4588,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
   <dimension ref="B2:Q21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I20"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4609,42 +4771,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
-      <c r="K3" s="110" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="132"/>
+      <c r="K3" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="111"/>
-      <c r="M3" s="112"/>
-      <c r="O3" s="110" t="s">
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="O3" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="112"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="126"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="115"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="115"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="129"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="129"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -4671,606 +4833,615 @@
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="62" t="s">
         <v>67</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="30" t="s">
+      <c r="Q5" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="69" t="s">
+      <c r="G6" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="71" t="s">
+      <c r="L6" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="65" t="s">
         <v>78</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="Q6" s="31" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="57" t="s">
+      <c r="F7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I7" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="M7" s="74" t="s">
-        <v>203</v>
+      <c r="K7" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>197</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="52" t="s">
+      <c r="B8" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="57" t="s">
+      <c r="D8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" s="77" t="s">
-        <v>195</v>
+      <c r="K8" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="71" t="s">
+        <v>189</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>99</v>
+        <v>118</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="58" t="s">
+      <c r="F9" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" s="77" t="s">
-        <v>195</v>
+      <c r="K9" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="71" t="s">
+        <v>189</v>
       </c>
       <c r="O9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="P9" s="42" t="s">
+      <c r="M10" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="34" t="s">
         <v>97</v>
-      </c>
-      <c r="Q9" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="58" t="s">
+      <c r="F11" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="O13" s="145" t="s">
+        <v>242</v>
+      </c>
+      <c r="P13" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q13" s="147" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="M11" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="P11" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q11" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="P12" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="L13" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="O13" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="P13" s="45" t="s">
+      <c r="Q14" s="36" t="s">
         <v>97</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" s="88" t="s">
-        <v>197</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P14" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="58" t="s">
+      <c r="G15" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" s="89" t="s">
-        <v>198</v>
+      <c r="K15" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" s="80" t="s">
+        <v>192</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="P15" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="Q15" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="58" t="s">
+      <c r="G16" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="58" t="s">
         <v>49</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="O16" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="P16" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="O17" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="58" t="s">
+      <c r="G18" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="I18" s="58" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="58" t="s">
+      <c r="G19" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="63" t="s">
+      <c r="I19" s="58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="60" t="s">
+      <c r="G20" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="59" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA842AA-03FC-44CD-8D68-C3FF3EA5AD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64EC044-B5AC-4669-8AD5-CBBBFD1B4E1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="241">
   <si>
     <t>Az eszközök interfészein szereplő IP címeket szemléltető táblázat</t>
   </si>
@@ -338,12 +338,6 @@
     <t>R1 -&gt; ML-SW1</t>
   </si>
   <si>
-    <t>ML-SW1 -&gt; AD1</t>
-  </si>
-  <si>
-    <t>ML-SW1 -&gt; AD2</t>
-  </si>
-  <si>
     <t>R2 -&gt; ML-SW2</t>
   </si>
   <si>
@@ -410,12 +404,6 @@
     <t>e1/0 -&gt; e0/0</t>
   </si>
   <si>
-    <t>e1/0-&gt;  e0</t>
-  </si>
-  <si>
-    <t>e1/1 -&gt;  e0</t>
-  </si>
-  <si>
     <t>e0/1 -&gt; e0/1</t>
   </si>
   <si>
@@ -756,6 +744,12 @@
   </si>
   <si>
     <t>Windows Kliensek</t>
+  </si>
+  <si>
+    <t>e1/0-&gt;  ether1</t>
+  </si>
+  <si>
+    <t>e1/1 -&gt;  ether1</t>
   </si>
 </sst>
 </file>
@@ -1804,69 +1798,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1875,6 +1806,69 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2192,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,42 +2208,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
-      <c r="K3" s="136" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="135"/>
+      <c r="K3" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="137"/>
-      <c r="M3" s="138"/>
-      <c r="O3" s="124" t="s">
+      <c r="L3" s="140"/>
+      <c r="M3" s="141"/>
+      <c r="O3" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="126"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="129"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="133"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="135"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="141"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="129"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="138"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="144"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="132"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -2286,7 +2280,7 @@
         <v>67</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P5" s="74" t="s">
         <v>69</v>
@@ -2300,7 +2294,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D6" s="102" t="s">
         <v>16</v>
@@ -2324,13 +2318,13 @@
         <v>77</v>
       </c>
       <c r="L6" s="91" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M6" s="92" t="s">
         <v>78</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P6" s="38" t="s">
         <v>95</v>
@@ -2344,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="106" t="s">
         <v>18</v>
@@ -2368,13 +2362,13 @@
         <v>79</v>
       </c>
       <c r="L7" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M7" s="95" t="s">
         <v>78</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P7" s="39" t="s">
         <v>96</v>
@@ -2388,7 +2382,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D8" s="106" t="s">
         <v>17</v>
@@ -2412,13 +2406,13 @@
         <v>102</v>
       </c>
       <c r="L8" s="94" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M8" s="92" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P8" s="40" t="s">
         <v>94</v>
@@ -2432,7 +2426,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="106" t="s">
         <v>19</v>
@@ -2453,16 +2447,16 @@
         <v>11</v>
       </c>
       <c r="K9" s="93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L9" s="94" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M9" s="92" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P9" s="41" t="s">
         <v>95</v>
@@ -2497,16 +2491,16 @@
         <v>38</v>
       </c>
       <c r="K10" s="93" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L10" s="97" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="M10" s="78" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P10" s="42" t="s">
         <v>96</v>
@@ -2541,16 +2535,16 @@
         <v>38</v>
       </c>
       <c r="K11" s="93" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L11" s="97" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="M11" s="78" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P11" s="42" t="s">
         <v>94</v>
@@ -2585,19 +2579,19 @@
         <v>27</v>
       </c>
       <c r="K12" s="93" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P12" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q12" s="35" t="s">
         <v>97</v>
@@ -2629,21 +2623,21 @@
         <v>14</v>
       </c>
       <c r="K13" s="93" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L13" s="97" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="M13" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="O13" s="145" t="s">
-        <v>242</v>
-      </c>
-      <c r="P13" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q13" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="O13" s="124" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q13" s="126" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2673,16 +2667,16 @@
         <v>38</v>
       </c>
       <c r="K14" s="93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L14" s="97" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M14" s="79" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P14" s="44" t="s">
         <v>95</v>
@@ -2717,16 +2711,16 @@
         <v>44</v>
       </c>
       <c r="K15" s="93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L15" s="97" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M15" s="79" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P15" s="42" t="s">
         <v>96</v>
@@ -2761,16 +2755,16 @@
         <v>45</v>
       </c>
       <c r="K16" s="93" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L16" s="97" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M16" s="79" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P16" s="42" t="s">
         <v>94</v>
@@ -2805,19 +2799,19 @@
         <v>47</v>
       </c>
       <c r="K17" s="93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L17" s="97" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M17" s="79" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="37" t="s">
         <v>97</v>
@@ -2828,10 +2822,10 @@
         <v>101</v>
       </c>
       <c r="C18" s="109" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E18" s="109" t="s">
         <v>12</v>
@@ -2843,19 +2837,19 @@
         <v>74</v>
       </c>
       <c r="H18" s="110" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K18" s="93" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L18" s="97" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M18" s="79" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
@@ -2884,18 +2878,18 @@
         <v>49</v>
       </c>
       <c r="K19" s="93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L19" s="97" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M19" s="79" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="107" t="s">
         <v>29</v>
@@ -2922,15 +2916,15 @@
         <v>88</v>
       </c>
       <c r="L20" s="97" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M20" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="107" t="s">
         <v>25</v>
@@ -2957,15 +2951,15 @@
         <v>89</v>
       </c>
       <c r="L21" s="97" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M21" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="109" t="s">
         <v>28</v>
@@ -2989,18 +2983,18 @@
         <v>14</v>
       </c>
       <c r="K22" s="93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L22" s="97" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M22" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" s="109" t="s">
         <v>29</v>
@@ -3024,18 +3018,18 @@
         <v>38</v>
       </c>
       <c r="K23" s="93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L23" s="97" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M23" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="109" t="s">
         <v>30</v>
@@ -3059,18 +3053,18 @@
         <v>44</v>
       </c>
       <c r="K24" s="93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L24" s="97" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M24" s="79" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="109" t="s">
         <v>31</v>
@@ -3094,18 +3088,18 @@
         <v>45</v>
       </c>
       <c r="K25" s="93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L25" s="97" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M25" s="79" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" s="109" t="s">
         <v>32</v>
@@ -3129,24 +3123,24 @@
         <v>47</v>
       </c>
       <c r="K26" s="93" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L26" s="97" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M26" s="72" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="110" t="s">
         <v>152</v>
-      </c>
-      <c r="D27" s="110" t="s">
-        <v>156</v>
       </c>
       <c r="E27" s="109" t="s">
         <v>12</v>
@@ -3158,24 +3152,24 @@
         <v>74</v>
       </c>
       <c r="H27" s="110" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I27" s="72" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K27" s="93" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L27" s="97" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M27" s="72" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C28" s="109" t="s">
         <v>33</v>
@@ -3199,18 +3193,18 @@
         <v>49</v>
       </c>
       <c r="K28" s="93" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L28" s="97" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M28" s="72" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C29" s="109" t="s">
         <v>33</v>
@@ -3234,18 +3228,18 @@
         <v>49</v>
       </c>
       <c r="K29" s="93" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L29" s="97" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M29" s="72" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C30" s="109" t="s">
         <v>33</v>
@@ -3269,13 +3263,13 @@
         <v>49</v>
       </c>
       <c r="K30" s="93" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L30" s="97" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M30" s="79" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
@@ -3307,10 +3301,10 @@
         <v>92</v>
       </c>
       <c r="L31" s="97" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M31" s="78" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
@@ -3339,13 +3333,13 @@
         <v>38</v>
       </c>
       <c r="K32" s="93" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M32" s="79" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3377,10 +3371,10 @@
         <v>90</v>
       </c>
       <c r="L33" s="98" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M33" s="79" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3409,13 +3403,13 @@
         <v>27</v>
       </c>
       <c r="K34" s="99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M34" s="80" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3472,10 +3466,10 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="111" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C37" s="105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="110" t="s">
         <v>62</v>
@@ -3498,10 +3492,10 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="122" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C38" s="105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D38" s="110" t="s">
         <v>57</v>
@@ -3524,10 +3518,10 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="111" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C39" s="105" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="112" t="s">
         <v>63</v>
@@ -3550,10 +3544,10 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="122" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C40" s="115" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="112" t="s">
         <v>99</v>
@@ -3576,19 +3570,19 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="109" t="s">
         <v>227</v>
       </c>
-      <c r="C41" s="109" t="s">
-        <v>231</v>
-      </c>
       <c r="D41" s="110" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E41" s="109" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="110" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G41" s="113" t="s">
         <v>74</v>
@@ -3602,19 +3596,19 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="111" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C42" s="109" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D42" s="110" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E42" s="109" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="110" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G42" s="113" t="s">
         <v>74</v>
@@ -3628,19 +3622,19 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="111" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C43" s="109" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D43" s="110" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E43" s="109" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="110" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G43" s="113" t="s">
         <v>74</v>
@@ -3654,19 +3648,19 @@
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="123" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C44" s="117" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" s="118" t="s">
         <v>231</v>
-      </c>
-      <c r="D44" s="118" t="s">
-        <v>235</v>
       </c>
       <c r="E44" s="117" t="s">
         <v>40</v>
       </c>
       <c r="F44" s="118" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G44" s="117" t="s">
         <v>74</v>
@@ -3884,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A484A0-15AF-44A1-BE8B-ECFED38A64CF}">
   <dimension ref="C2:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:R17"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3909,48 +3903,48 @@
   <sheetData>
     <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="132"/>
-      <c r="L3" s="136" t="s">
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="135"/>
+      <c r="L3" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="137"/>
-      <c r="N3" s="138"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="141"/>
       <c r="O3" s="17"/>
-      <c r="P3" s="124" t="s">
+      <c r="P3" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="126"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
       <c r="S3" s="5"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="135"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="144"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="138"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="147"/>
       <c r="O4" s="17"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="129"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="132"/>
       <c r="S4" s="5"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
@@ -3992,7 +3986,7 @@
       </c>
       <c r="O5" s="18"/>
       <c r="P5" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="74" t="s">
         <v>69</v>
@@ -4010,16 +4004,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H6" s="48" t="s">
         <v>74</v>
@@ -4034,14 +4028,14 @@
         <v>77</v>
       </c>
       <c r="M6" s="85" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N6" s="77" t="s">
         <v>78</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="38" t="s">
         <v>95</v>
@@ -4059,10 +4053,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F7" s="49" t="s">
         <v>24</v>
@@ -4074,23 +4068,23 @@
         <v>74</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="82" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M7" s="86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="39" t="s">
         <v>96</v>
@@ -4105,41 +4099,41 @@
     </row>
     <row r="8" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="47" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F8" s="49" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H8" s="49" t="s">
         <v>74</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J8" s="57" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="83" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M8" s="86" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N8" s="78" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="40" t="s">
         <v>94</v>
@@ -4154,13 +4148,13 @@
     </row>
     <row r="9" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C9" s="23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F9" s="50" t="s">
         <v>10</v>
@@ -4172,23 +4166,23 @@
         <v>74</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J9" s="58" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="82" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M9" s="86" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N9" s="78" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="41" t="s">
         <v>95</v>
@@ -4200,13 +4194,13 @@
     </row>
     <row r="10" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>211</v>
-      </c>
       <c r="E10" s="53" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>10</v>
@@ -4218,23 +4212,23 @@
         <v>74</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J10" s="57" t="s">
         <v>38</v>
       </c>
       <c r="L10" s="82" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M10" s="86" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N10" s="79" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="42" t="s">
         <v>96</v>
@@ -4246,13 +4240,13 @@
     </row>
     <row r="11" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>10</v>
@@ -4264,23 +4258,23 @@
         <v>74</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J11" s="58" t="s">
         <v>44</v>
       </c>
       <c r="L11" s="82" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M11" s="86" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N11" s="79" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="42" t="s">
         <v>94</v>
@@ -4295,41 +4289,41 @@
         <v>101</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H12" s="49" t="s">
         <v>74</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J12" s="57" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="82" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M12" s="86" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N12" s="79" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q12" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R12" s="35" t="s">
         <v>97</v>
@@ -4338,25 +4332,25 @@
     </row>
     <row r="13" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F13" s="50" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H13" s="50" t="s">
         <v>74</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J13" s="58" t="s">
         <v>11</v>
@@ -4365,60 +4359,60 @@
         <v>88</v>
       </c>
       <c r="M13" s="86" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N13" s="79" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O13" s="12"/>
-      <c r="P13" s="145" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q13" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="R13" s="147" t="s">
+      <c r="P13" s="124" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q13" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="R13" s="126" t="s">
         <v>97</v>
       </c>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="3:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F14" s="50" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J14" s="58" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="82" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M14" s="86" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N14" s="79" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="44" t="s">
         <v>95</v>
@@ -4454,17 +4448,17 @@
         <v>27</v>
       </c>
       <c r="L15" s="84" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M15" s="87" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N15" s="80" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q15" s="42" t="s">
         <v>96</v>
@@ -4504,7 +4498,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="8"/>
       <c r="P16" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="42" t="s">
         <v>94</v>
@@ -4522,7 +4516,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F17" s="50" t="s">
         <v>12</v>
@@ -4543,10 +4537,10 @@
       <c r="N17" s="10"/>
       <c r="O17" s="8"/>
       <c r="P17" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R17" s="37" t="s">
         <v>97</v>
@@ -4561,7 +4555,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F18" s="50" t="s">
         <v>40</v>
@@ -4595,7 +4589,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F19" s="50" t="s">
         <v>40</v>
@@ -4629,7 +4623,7 @@
         <v>33</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>10</v>
@@ -4663,13 +4657,13 @@
         <v>33</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F21" s="50" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>74</v>
@@ -4683,19 +4677,19 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>124</v>
-      </c>
       <c r="E22" s="54" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F22" s="50" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H22" s="50" t="s">
         <v>74</v>
@@ -4709,19 +4703,19 @@
     </row>
     <row r="23" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F23" s="51" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H23" s="51" t="s">
         <v>74</v>
@@ -4750,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
   <dimension ref="B2:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4771,42 +4765,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
-      <c r="K3" s="124" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="135"/>
+      <c r="K3" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-      <c r="O3" s="124" t="s">
+      <c r="L3" s="128"/>
+      <c r="M3" s="129"/>
+      <c r="O3" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="126"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="129"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="133"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="135"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="129"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="129"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="138"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="132"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="132"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -4843,7 +4837,7 @@
         <v>67</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P5" s="74" t="s">
         <v>69</v>
@@ -4857,7 +4851,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>71</v>
@@ -4881,13 +4875,13 @@
         <v>77</v>
       </c>
       <c r="L6" s="64" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M6" s="65" t="s">
         <v>78</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P6" s="38" t="s">
         <v>95</v>
@@ -4901,7 +4895,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>73</v>
@@ -4925,13 +4919,13 @@
         <v>102</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M7" s="68" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P7" s="39" t="s">
         <v>96</v>
@@ -4966,16 +4960,16 @@
         <v>27</v>
       </c>
       <c r="K8" s="69" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="L8" s="70" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="M8" s="71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P8" s="40" t="s">
         <v>94</v>
@@ -5010,16 +5004,16 @@
         <v>14</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="L9" s="54" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="M9" s="71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P9" s="41" t="s">
         <v>95</v>
@@ -5057,13 +5051,13 @@
         <v>88</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M10" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P10" s="42" t="s">
         <v>96</v>
@@ -5101,13 +5095,13 @@
         <v>89</v>
       </c>
       <c r="L11" s="54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M11" s="72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P11" s="42" t="s">
         <v>94</v>
@@ -5142,19 +5136,19 @@
         <v>45</v>
       </c>
       <c r="K12" s="66" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L12" s="54" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M12" s="72" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P12" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q12" s="35" t="s">
         <v>97</v>
@@ -5186,21 +5180,21 @@
         <v>47</v>
       </c>
       <c r="K13" s="66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L13" s="54" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M13" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="O13" s="145" t="s">
-        <v>242</v>
-      </c>
-      <c r="P13" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q13" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="O13" s="124" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q13" s="126" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5233,13 +5227,13 @@
         <v>90</v>
       </c>
       <c r="L14" s="54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M14" s="79" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P14" s="44" t="s">
         <v>95</v>
@@ -5277,13 +5271,13 @@
         <v>91</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M15" s="80" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P15" s="42" t="s">
         <v>96</v>
@@ -5319,7 +5313,7 @@
       </c>
       <c r="M16" s="2"/>
       <c r="O16" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P16" s="42" t="s">
         <v>94</v>
@@ -5330,10 +5324,10 @@
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="60" t="s">
         <v>86</v>
@@ -5354,10 +5348,10 @@
         <v>14</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="37" t="s">
         <v>97</v>
@@ -5365,10 +5359,10 @@
     </row>
     <row r="18" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="60" t="s">
         <v>87</v>
@@ -5391,13 +5385,13 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="50" t="s">
-        <v>124</v>
-      </c>
       <c r="D19" s="54" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E19" s="50" t="s">
         <v>40</v>
@@ -5417,13 +5411,13 @@
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E20" s="51" t="s">
         <v>40</v>

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Veglegesitett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64EC044-B5AC-4669-8AD5-CBBBFD1B4E1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B11C5-8886-4F36-B298-78229F55B13A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="246">
   <si>
     <t>Az eszközök interfészein szereplő IP címeket szemléltető táblázat</t>
   </si>
@@ -89,9 +89,6 @@
     <t>10.10.0.254</t>
   </si>
   <si>
-    <t>HSRP Virtual Routers</t>
-  </si>
-  <si>
     <t>10.10.0.250</t>
   </si>
   <si>
@@ -750,6 +747,24 @@
   </si>
   <si>
     <t>e1/1 -&gt;  ether1</t>
+  </si>
+  <si>
+    <t>10.10.40.3</t>
+  </si>
+  <si>
+    <t>10.10.64.3</t>
+  </si>
+  <si>
+    <t>10.10.75.3</t>
+  </si>
+  <si>
+    <t>10.10.76.3</t>
+  </si>
+  <si>
+    <t>HSRP Virtual Switch Interface</t>
+  </si>
+  <si>
+    <t>HSRP Virtual Router Interface</t>
   </si>
 </sst>
 </file>
@@ -2184,15 +2199,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
-  <dimension ref="B2:Q63"/>
+  <dimension ref="B2:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -2219,12 +2234,12 @@
       <c r="H3" s="134"/>
       <c r="I3" s="135"/>
       <c r="K3" s="139" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="140"/>
       <c r="M3" s="141"/>
       <c r="O3" s="127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P3" s="128"/>
       <c r="Q3" s="129"/>
@@ -2271,22 +2286,22 @@
         <v>8</v>
       </c>
       <c r="K5" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="M5" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="89" t="s">
-        <v>67</v>
-      </c>
       <c r="O5" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P5" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2294,7 +2309,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="102" t="s">
         <v>16</v>
@@ -2303,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="103" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="102" t="s">
         <v>11</v>
@@ -2315,22 +2330,22 @@
         <v>11</v>
       </c>
       <c r="K6" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="M6" s="92" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -2338,43 +2353,43 @@
         <v>9</v>
       </c>
       <c r="C7" s="105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="106" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="106" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="108" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M7" s="95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2382,7 +2397,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="106" t="s">
         <v>17</v>
@@ -2394,7 +2409,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="106" t="s">
         <v>11</v>
@@ -2403,22 +2418,22 @@
         <v>11</v>
       </c>
       <c r="K8" s="96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L8" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M8" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2426,680 +2441,680 @@
         <v>15</v>
       </c>
       <c r="C9" s="105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="106" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="106" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="108" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M9" s="92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P9" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="106" t="s">
-        <v>21</v>
-      </c>
       <c r="E10" s="107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="106" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="108" t="s">
-        <v>38</v>
-      </c>
       <c r="K10" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" s="97" t="s">
         <v>174</v>
       </c>
-      <c r="L10" s="97" t="s">
-        <v>175</v>
-      </c>
       <c r="M10" s="78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="L11" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="M12" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="106" t="s">
+      <c r="F13" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="108" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="93" t="s">
+      <c r="K13" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="L11" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="M11" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="P11" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="121" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="L12" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="M12" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="110" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="93" t="s">
-        <v>222</v>
-      </c>
-      <c r="L13" s="97" t="s">
-        <v>177</v>
-      </c>
       <c r="M13" s="78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O13" s="124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P13" s="125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="109" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="110" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E14" s="109" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K14" s="93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14" s="97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M14" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P14" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="109" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E15" s="109" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F15" s="110" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="72" t="s">
         <v>44</v>
       </c>
       <c r="K15" s="93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15" s="97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M15" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="109" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="109" t="s">
-        <v>40</v>
-      </c>
       <c r="F16" s="110" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="110" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" s="93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L16" s="97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M16" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P16" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="D17" s="110" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="E17" s="109" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F17" s="110" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="110" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K17" s="93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" s="97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M17" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="109" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="110" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="110" t="s">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="K18" s="93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L18" s="97" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M18" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="109" t="s">
-        <v>13</v>
+        <v>104</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="107" t="s">
+        <v>11</v>
       </c>
       <c r="F19" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="107" t="s">
-        <v>74</v>
+      <c r="G19" s="109" t="s">
+        <v>11</v>
       </c>
       <c r="H19" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="72" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="I19" s="108" t="s">
+        <v>26</v>
       </c>
       <c r="K19" s="93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L19" s="97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M19" s="79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="106" t="s">
-        <v>21</v>
+        <v>104</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="110" t="s">
+        <v>11</v>
       </c>
       <c r="G20" s="109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K20" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L20" s="97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M20" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D21" s="106" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E21" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="110" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="F21" s="106" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="109" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H21" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="108" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>37</v>
       </c>
       <c r="K21" s="93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L21" s="97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M21" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="111" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="93" t="s">
-        <v>106</v>
-      </c>
       <c r="L22" s="97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M22" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="107" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="E23" s="109" t="s">
+        <v>39</v>
       </c>
       <c r="F23" s="110" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H23" s="110" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K23" s="93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L23" s="97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M23" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E24" s="109" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F24" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="107" t="s">
-        <v>74</v>
+      <c r="G24" s="109" t="s">
+        <v>73</v>
       </c>
       <c r="H24" s="110" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="I24" s="72" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K24" s="93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L24" s="97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M24" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="109" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="E25" s="109" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F25" s="110" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="110" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="I25" s="72" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="K25" s="93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L25" s="97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M25" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="109" t="s">
         <v>32</v>
@@ -3108,321 +3123,321 @@
         <v>52</v>
       </c>
       <c r="E26" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="106" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" s="110" t="s">
         <v>42</v>
       </c>
       <c r="I26" s="72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="M26" s="72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="E27" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="L26" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="M26" s="72" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="109" t="s">
+      <c r="L27" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="M27" s="72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="106" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="110" t="s">
+      <c r="F28" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="M28" s="72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="L29" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" s="72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="106" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="L30" s="97" t="s">
+        <v>143</v>
+      </c>
+      <c r="M30" s="79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="I27" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="K27" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="L27" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="M27" s="72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="109" t="s">
+      <c r="K31" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="L31" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="M31" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="L28" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="M28" s="72" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="110" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="L29" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="M29" s="72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="111" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="109" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="109" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="93" t="s">
+      <c r="F32" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="L30" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="M30" s="79" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="L31" s="97" t="s">
+      <c r="L32" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="K32" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="L32" s="97" t="s">
-        <v>146</v>
-      </c>
       <c r="M32" s="79" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="111" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="C33" s="109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="110" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E33" s="109" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H33" s="110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L33" s="98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M33" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="107" t="s">
-        <v>11</v>
+      <c r="E34" s="109" t="s">
+        <v>13</v>
       </c>
       <c r="F34" s="110" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G34" s="109" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H34" s="110" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="108" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="I34" s="72" t="s">
+        <v>48</v>
       </c>
       <c r="K34" s="99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L34" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M34" s="80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B35" s="111" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="107" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="110" t="s">
@@ -3432,396 +3447,351 @@
         <v>11</v>
       </c>
       <c r="H35" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="72" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="I35" s="108" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="111" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="109" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" s="110" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="E36" s="109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" s="110" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G36" s="109" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="H36" s="110" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I36" s="72" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>122</v>
+        <v>57</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>32</v>
       </c>
       <c r="D37" s="110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E37" s="109" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="110" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G37" s="109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" s="110" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I37" s="72" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="122" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="110" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="109" t="s">
-        <v>13</v>
+      <c r="B38" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="107" t="s">
+        <v>11</v>
       </c>
       <c r="F38" s="110" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G38" s="109" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="H38" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="72" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="I38" s="108" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="111" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="110" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="113" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="114" t="s">
-        <v>14</v>
+      <c r="F40" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="72" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="111" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="109" t="s">
-        <v>227</v>
+        <v>161</v>
+      </c>
+      <c r="C41" s="105" t="s">
+        <v>121</v>
       </c>
       <c r="D41" s="110" t="s">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="E41" s="109" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F41" s="110" t="s">
-        <v>232</v>
-      </c>
-      <c r="G41" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="116" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="G41" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="72" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="111" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="109" t="s">
-        <v>227</v>
+      <c r="B42" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>121</v>
       </c>
       <c r="D42" s="110" t="s">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c r="E42" s="109" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F42" s="110" t="s">
-        <v>232</v>
-      </c>
-      <c r="G42" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="116" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="G42" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="110" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="72" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="122" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="109" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="110" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="110" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="116" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C46" s="109" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="110" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="110" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="116" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="109" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="110" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="116" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="C43" s="109" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" s="110" t="s">
+      <c r="C48" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="E43" s="109" t="s">
+      <c r="E48" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="110" t="s">
-        <v>232</v>
-      </c>
-      <c r="G43" s="113" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="116" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="123" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" s="117" t="s">
-        <v>227</v>
-      </c>
-      <c r="D44" s="118" t="s">
-        <v>231</v>
-      </c>
-      <c r="E44" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="G44" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="119" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-    </row>
+      <c r="I48" s="119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
@@ -3841,26 +3811,6 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3878,9 +3828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A484A0-15AF-44A1-BE8B-ECFED38A64CF}">
   <dimension ref="C2:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3914,13 +3862,13 @@
       <c r="I3" s="134"/>
       <c r="J3" s="135"/>
       <c r="L3" s="139" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" s="140"/>
       <c r="N3" s="141"/>
       <c r="O3" s="17"/>
       <c r="P3" s="127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="128"/>
       <c r="R3" s="129"/>
@@ -3976,23 +3924,23 @@
         <v>8</v>
       </c>
       <c r="L5" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="N5" s="76" t="s">
         <v>66</v>
-      </c>
-      <c r="N5" s="76" t="s">
-        <v>67</v>
       </c>
       <c r="O5" s="18"/>
       <c r="P5" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>70</v>
       </c>
       <c r="S5" s="6"/>
       <c r="U5" s="19"/>
@@ -4004,19 +3952,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="48" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="52" t="s">
         <v>11</v>
@@ -4025,23 +3973,23 @@
         <v>11</v>
       </c>
       <c r="L6" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="77" t="s">
         <v>77</v>
-      </c>
-      <c r="M6" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="N6" s="77" t="s">
-        <v>78</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S6" s="7"/>
       <c r="U6" s="3"/>
@@ -4053,44 +4001,44 @@
         <v>9</v>
       </c>
       <c r="D7" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="F7" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>202</v>
-      </c>
       <c r="J7" s="57" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="82" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M7" s="86" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="S7" s="7"/>
       <c r="U7" s="3"/>
@@ -4099,47 +4047,47 @@
     </row>
     <row r="8" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="E8" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="53" t="s">
-        <v>205</v>
-      </c>
       <c r="F8" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>202</v>
-      </c>
       <c r="J8" s="57" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="M8" s="86" t="s">
-        <v>169</v>
-      </c>
       <c r="N8" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R8" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S8" s="7"/>
       <c r="U8" s="3"/>
@@ -4148,13 +4096,13 @@
     </row>
     <row r="9" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C9" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" s="50" t="s">
         <v>10</v>
@@ -4163,44 +4111,44 @@
         <v>11</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J9" s="58" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="86" t="s">
-        <v>171</v>
-      </c>
       <c r="N9" s="78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S9" s="7"/>
     </row>
     <row r="10" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>10</v>
@@ -4209,44 +4157,44 @@
         <v>11</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J10" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="M10" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="M10" s="86" t="s">
-        <v>173</v>
-      </c>
       <c r="N10" s="79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>97</v>
       </c>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>10</v>
@@ -4255,225 +4203,225 @@
         <v>11</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="M11" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="86" t="s">
-        <v>175</v>
-      </c>
       <c r="N11" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="53" t="s">
         <v>212</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>213</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J12" s="57" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="M12" s="86" t="s">
-        <v>177</v>
-      </c>
       <c r="N12" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F13" s="50" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J13" s="58" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" s="86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N13" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q13" s="125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R13" s="126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="3:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C14" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F14" s="50" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" s="58" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="M14" s="86" t="s">
-        <v>180</v>
-      </c>
       <c r="N14" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="3:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="53" t="s">
+      <c r="J15" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="57" t="s">
-        <v>27</v>
-      </c>
       <c r="L15" s="84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M15" s="87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N15" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="R15" s="34" t="s">
-        <v>97</v>
       </c>
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="3:23" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C16" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="53" t="s">
         <v>11</v>
@@ -4488,35 +4436,35 @@
         <v>11</v>
       </c>
       <c r="I16" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="57" t="s">
         <v>37</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>38</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="8"/>
       <c r="P16" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F17" s="50" t="s">
         <v>12</v>
@@ -4525,52 +4473,52 @@
         <v>11</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="8"/>
       <c r="P17" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R17" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C18" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F18" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="54" t="s">
-        <v>41</v>
-      </c>
       <c r="J18" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="10"/>
@@ -4583,28 +4531,28 @@
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J19" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="15"/>
@@ -4617,13 +4565,13 @@
     </row>
     <row r="20" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>10</v>
@@ -4632,13 +4580,13 @@
         <v>11</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I20" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="14"/>
@@ -4651,80 +4599,80 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F21" s="50" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F22" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="54" t="s">
-        <v>41</v>
-      </c>
       <c r="J22" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="55" t="s">
-        <v>41</v>
-      </c>
       <c r="J23" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="3:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4744,9 +4692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
   <dimension ref="B2:Q21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4776,12 +4722,12 @@
       <c r="H3" s="134"/>
       <c r="I3" s="135"/>
       <c r="K3" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="128"/>
       <c r="M3" s="129"/>
       <c r="O3" s="127" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P3" s="128"/>
       <c r="Q3" s="129"/>
@@ -4828,22 +4774,22 @@
         <v>8</v>
       </c>
       <c r="K5" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="M5" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="62" t="s">
-        <v>67</v>
-      </c>
       <c r="O5" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P5" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4851,19 +4797,19 @@
         <v>9</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="52" t="s">
         <v>11</v>
@@ -4872,22 +4818,22 @@
         <v>11</v>
       </c>
       <c r="K6" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -4895,10 +4841,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="49" t="s">
         <v>10</v>
@@ -4907,174 +4853,174 @@
         <v>11</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>38</v>
-      </c>
       <c r="K7" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M7" s="68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P7" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="53" t="s">
+      <c r="I8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="57" t="s">
-        <v>27</v>
-      </c>
       <c r="K8" s="69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L8" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M8" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P8" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="54" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="58" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L9" s="54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M9" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P9" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="49" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="57" t="s">
-        <v>38</v>
-      </c>
       <c r="K10" s="66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M10" s="72" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="50" t="s">
         <v>12</v>
@@ -5083,130 +5029,130 @@
         <v>11</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" s="72" t="s">
-        <v>186</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="P11" s="42" t="s">
-        <v>94</v>
-      </c>
       <c r="Q11" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>41</v>
-      </c>
       <c r="I12" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L12" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M12" s="72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P12" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="54" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L13" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M13" s="72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O13" s="124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P13" s="125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="50" t="s">
         <v>13</v>
@@ -5215,169 +5161,169 @@
         <v>11</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" s="66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L14" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M14" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P14" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M15" s="80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P15" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="50" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M16" s="2"/>
       <c r="O16" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P16" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="58" t="s">
         <v>14</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="58" t="s">
         <v>14</v>
@@ -5385,54 +5331,54 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>41</v>
-      </c>
       <c r="I19" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E20" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="55" t="s">
-        <v>41</v>
-      </c>
       <c r="I20" s="59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">

--- a/Dokumentacio/Kotesitabla.xlsx
+++ b/Dokumentacio/Kotesitabla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Veglegesitett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFRA_Kepzes\Git_VizsgaRemek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B11C5-8886-4F36-B298-78229F55B13A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC16E1-6B5B-420B-99D5-78523396A091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EF0B6DC1-2BB8-4601-8419-5E836373E938}"/>
   </bookViews>
   <sheets>
     <sheet name="The_Marathon" sheetId="1" r:id="rId1"/>
@@ -771,13 +771,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -835,6 +842,22 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1494,23 +1517,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1518,371 +1538,386 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2201,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825CD85-E270-4628-AEE2-92A845DEEF79}">
   <dimension ref="B2:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,42 +2258,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="135"/>
-      <c r="K3" s="139" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="123"/>
+      <c r="K3" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="140"/>
-      <c r="M3" s="141"/>
-      <c r="O3" s="127" t="s">
+      <c r="L3" s="128"/>
+      <c r="M3" s="129"/>
+      <c r="O3" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="129"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="117"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="136"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="138"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="144"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="132"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="126"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="132"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -2285,13 +2320,13 @@
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="88" t="s">
+      <c r="K5" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="89" t="s">
+      <c r="M5" s="79" t="s">
         <v>66</v>
       </c>
       <c r="O5" s="21" t="s">
@@ -2305,37 +2340,37 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="90" t="s">
+      <c r="G6" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="82" t="s">
         <v>77</v>
       </c>
       <c r="O6" s="22" t="s">
@@ -2349,37 +2384,37 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="106" t="s">
+      <c r="F7" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="93" t="s">
+      <c r="I7" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="M7" s="95" t="s">
+      <c r="M7" s="85" t="s">
         <v>77</v>
       </c>
       <c r="O7" s="23" t="s">
@@ -2393,37 +2428,37 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F8" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="96" t="s">
+      <c r="G8" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="L8" s="94" t="s">
+      <c r="L8" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="92" t="s">
+      <c r="M8" s="82" t="s">
         <v>192</v>
       </c>
       <c r="O8" s="24" t="s">
@@ -2437,37 +2472,37 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="106" t="s">
+      <c r="F9" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="93" t="s">
+      <c r="I9" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="94" t="s">
+      <c r="L9" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="92" t="s">
+      <c r="M9" s="82" t="s">
         <v>192</v>
       </c>
       <c r="O9" s="25" t="s">
@@ -2481,37 +2516,37 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="106" t="s">
+      <c r="C10" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="106" t="s">
+      <c r="F10" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="L10" s="97" t="s">
+      <c r="L10" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M10" s="75" t="s">
         <v>184</v>
       </c>
       <c r="O10" s="25" t="s">
@@ -2525,37 +2560,37 @@
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="106" t="s">
+      <c r="D11" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="108" t="s">
+      <c r="I11" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="93" t="s">
+      <c r="K11" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="L11" s="97" t="s">
+      <c r="L11" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="M11" s="78" t="s">
+      <c r="M11" s="75" t="s">
         <v>184</v>
       </c>
       <c r="O11" s="25" t="s">
@@ -2569,37 +2604,37 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="110" t="s">
+      <c r="F12" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="100" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="93" t="s">
+      <c r="K12" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="L12" s="97" t="s">
+      <c r="L12" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="M12" s="78" t="s">
+      <c r="M12" s="75" t="s">
         <v>184</v>
       </c>
       <c r="O12" s="25" t="s">
@@ -2613,81 +2648,81 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="107" t="s">
+      <c r="E13" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="106" t="s">
+      <c r="G13" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="108" t="s">
+      <c r="I13" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="93" t="s">
+      <c r="K13" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="L13" s="97" t="s">
+      <c r="L13" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="M13" s="78" t="s">
+      <c r="M13" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="O13" s="124" t="s">
+      <c r="O13" s="114" t="s">
         <v>237</v>
       </c>
-      <c r="P13" s="125" t="s">
+      <c r="P13" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="Q13" s="126" t="s">
+      <c r="Q13" s="35" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="110" t="s">
+      <c r="F14" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="100" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="93" t="s">
+      <c r="K14" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="L14" s="97" t="s">
+      <c r="L14" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="M14" s="79" t="s">
+      <c r="M14" s="76" t="s">
         <v>196</v>
       </c>
       <c r="O14" s="27" t="s">
@@ -2701,37 +2736,37 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="110" t="s">
+      <c r="F15" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="100" t="s">
         <v>40</v>
       </c>
       <c r="I15" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="L15" s="97" t="s">
+      <c r="L15" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="79" t="s">
+      <c r="M15" s="76" t="s">
         <v>196</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -2745,37 +2780,37 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="110" t="s">
+      <c r="F16" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="100" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="93" t="s">
+      <c r="K16" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="97" t="s">
+      <c r="L16" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="M16" s="79" t="s">
+      <c r="M16" s="76" t="s">
         <v>196</v>
       </c>
       <c r="O16" s="26" t="s">
@@ -2789,37 +2824,37 @@
       </c>
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="110" t="s">
+      <c r="F17" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="100" t="s">
         <v>149</v>
       </c>
       <c r="I17" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="K17" s="93" t="s">
+      <c r="K17" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="97" t="s">
+      <c r="L17" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="M17" s="79" t="s">
+      <c r="M17" s="76" t="s">
         <v>196</v>
       </c>
       <c r="O17" s="28" t="s">
@@ -2833,104 +2868,104 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="110" t="s">
+      <c r="F18" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="100" t="s">
         <v>42</v>
       </c>
       <c r="I18" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="93" t="s">
+      <c r="K18" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="L18" s="97" t="s">
+      <c r="L18" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="79" t="s">
+      <c r="M18" s="76" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="110" t="s">
+      <c r="D19" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="108" t="s">
+      <c r="I19" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="93" t="s">
+      <c r="K19" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="97" t="s">
+      <c r="L19" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="M19" s="79" t="s">
+      <c r="M19" s="76" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="109" t="s">
+      <c r="E20" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="110" t="s">
+      <c r="F20" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="100" t="s">
         <v>35</v>
       </c>
       <c r="I20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="93" t="s">
+      <c r="K20" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="97" t="s">
+      <c r="L20" s="87" t="s">
         <v>141</v>
       </c>
       <c r="M20" s="72" t="s">
@@ -2938,34 +2973,34 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="106" t="s">
+      <c r="D21" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="107" t="s">
+      <c r="E21" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="106" t="s">
+      <c r="F21" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="110" t="s">
+      <c r="G21" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="100" t="s">
         <v>36</v>
       </c>
       <c r="I21" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="93" t="s">
+      <c r="K21" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="97" t="s">
+      <c r="L21" s="87" t="s">
         <v>142</v>
       </c>
       <c r="M21" s="72" t="s">
@@ -2973,34 +3008,34 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="109" t="s">
+      <c r="E22" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="110" t="s">
+      <c r="F22" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="100" t="s">
         <v>92</v>
       </c>
       <c r="I22" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="93" t="s">
+      <c r="K22" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="97" t="s">
+      <c r="L22" s="87" t="s">
         <v>142</v>
       </c>
       <c r="M22" s="72" t="s">
@@ -3008,34 +3043,34 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="109" t="s">
+      <c r="E23" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="110" t="s">
+      <c r="F23" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="100" t="s">
         <v>40</v>
       </c>
       <c r="I23" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="93" t="s">
+      <c r="K23" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="97" t="s">
+      <c r="L23" s="87" t="s">
         <v>141</v>
       </c>
       <c r="M23" s="72" t="s">
@@ -3043,104 +3078,104 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="109" t="s">
+      <c r="E24" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="110" t="s">
+      <c r="F24" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="100" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="93" t="s">
+      <c r="K24" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="L24" s="97" t="s">
+      <c r="L24" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="M24" s="79" t="s">
+      <c r="M24" s="76" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="109" t="s">
+      <c r="E25" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="110" t="s">
+      <c r="F25" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="100" t="s">
         <v>149</v>
       </c>
       <c r="I25" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="L25" s="97" t="s">
+      <c r="L25" s="87" t="s">
         <v>132</v>
       </c>
-      <c r="M25" s="79" t="s">
+      <c r="M25" s="76" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="109" t="s">
+      <c r="E26" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="110" t="s">
+      <c r="F26" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="100" t="s">
         <v>42</v>
       </c>
       <c r="I26" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="93" t="s">
+      <c r="K26" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="L26" s="97" t="s">
+      <c r="L26" s="87" t="s">
         <v>140</v>
       </c>
       <c r="M26" s="72" t="s">
@@ -3148,34 +3183,34 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="C27" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="106" t="s">
+      <c r="C27" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="E27" s="107" t="s">
+      <c r="E27" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="106" t="s">
+      <c r="F27" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="108" t="s">
+      <c r="I27" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="93" t="s">
+      <c r="K27" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="L27" s="97" t="s">
+      <c r="L27" s="87" t="s">
         <v>136</v>
       </c>
       <c r="M27" s="72" t="s">
@@ -3183,34 +3218,34 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="C28" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="106" t="s">
+      <c r="C28" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="E28" s="107" t="s">
+      <c r="E28" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="106" t="s">
+      <c r="F28" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="108" t="s">
+      <c r="I28" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="93" t="s">
+      <c r="K28" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="L28" s="97" t="s">
+      <c r="L28" s="87" t="s">
         <v>139</v>
       </c>
       <c r="M28" s="72" t="s">
@@ -3218,34 +3253,34 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="C29" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="106" t="s">
+      <c r="C29" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="96" t="s">
         <v>231</v>
       </c>
-      <c r="E29" s="107" t="s">
+      <c r="E29" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="106" t="s">
+      <c r="F29" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="108" t="s">
+      <c r="I29" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="93" t="s">
+      <c r="K29" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="L29" s="97" t="s">
+      <c r="L29" s="87" t="s">
         <v>136</v>
       </c>
       <c r="M29" s="72" t="s">
@@ -3253,226 +3288,226 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="C30" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="106" t="s">
+      <c r="C30" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="E30" s="107" t="s">
+      <c r="E30" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H30" s="106" t="s">
+      <c r="F30" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="108" t="s">
+      <c r="I30" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="K30" s="93" t="s">
+      <c r="K30" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="L30" s="97" t="s">
+      <c r="L30" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="M30" s="79" t="s">
+      <c r="M30" s="76" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="C31" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="106" t="s">
+      <c r="C31" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="107" t="s">
+      <c r="E31" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="106" t="s">
+      <c r="F31" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="I31" s="108" t="s">
+      <c r="I31" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="K31" s="93" t="s">
+      <c r="K31" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="L31" s="97" t="s">
+      <c r="L31" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="M31" s="78" t="s">
+      <c r="M31" s="75" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="C32" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="106" t="s">
+      <c r="C32" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="E32" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="106" t="s">
+      <c r="F32" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="108" t="s">
+      <c r="I32" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="K32" s="93" t="s">
+      <c r="K32" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="L32" s="97" t="s">
+      <c r="L32" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="M32" s="79" t="s">
+      <c r="M32" s="76" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="109" t="s">
+      <c r="C33" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="109" t="s">
+      <c r="E33" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="110" t="s">
+      <c r="F33" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="110" t="s">
+      <c r="G33" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="100" t="s">
         <v>42</v>
       </c>
       <c r="I33" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="K33" s="93" t="s">
+      <c r="K33" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="L33" s="98" t="s">
+      <c r="L33" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="M33" s="79" t="s">
+      <c r="M33" s="76" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="109" t="s">
+      <c r="C34" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="109" t="s">
+      <c r="E34" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="110" t="s">
+      <c r="F34" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H34" s="110" t="s">
+      <c r="G34" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="100" t="s">
         <v>42</v>
       </c>
       <c r="I34" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="K34" s="99" t="s">
+      <c r="K34" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="L34" s="100" t="s">
+      <c r="L34" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="M34" s="80" t="s">
+      <c r="M34" s="77" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="110" t="s">
+      <c r="D35" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="I35" s="108" t="s">
+      <c r="I35" s="98" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="109" t="s">
+      <c r="C36" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="110" t="s">
+      <c r="D36" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="100" t="s">
         <v>36</v>
       </c>
       <c r="I36" s="72" t="s">
@@ -3480,25 +3515,25 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="109" t="s">
+      <c r="E37" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="110" t="s">
+      <c r="F37" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H37" s="110" t="s">
+      <c r="G37" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="100" t="s">
         <v>42</v>
       </c>
       <c r="I37" s="72" t="s">
@@ -3506,51 +3541,51 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="110" t="s">
+      <c r="D38" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="108" t="s">
+      <c r="I38" s="98" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="111" t="s">
+      <c r="B39" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="110" t="s">
+      <c r="D39" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="100" t="s">
         <v>36</v>
       </c>
       <c r="I39" s="72" t="s">
@@ -3558,25 +3593,25 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="111" t="s">
+      <c r="B40" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="109" t="s">
+      <c r="C40" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="109" t="s">
+      <c r="E40" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="110" t="s">
+      <c r="F40" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="110" t="s">
+      <c r="G40" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="100" t="s">
         <v>42</v>
       </c>
       <c r="I40" s="72" t="s">
@@ -3584,25 +3619,25 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="105" t="s">
+      <c r="C41" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="110" t="s">
+      <c r="D41" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="109" t="s">
+      <c r="E41" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="110" t="s">
+      <c r="F41" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="110" t="s">
+      <c r="G41" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="100" t="s">
         <v>35</v>
       </c>
       <c r="I41" s="72" t="s">
@@ -3610,25 +3645,25 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="122" t="s">
+      <c r="B42" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="105" t="s">
+      <c r="C42" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="D42" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="109" t="s">
+      <c r="E42" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="110" t="s">
+      <c r="F42" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42" s="110" t="s">
+      <c r="G42" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="100" t="s">
         <v>35</v>
       </c>
       <c r="I42" s="72" t="s">
@@ -3636,158 +3671,158 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="111" t="s">
+      <c r="B43" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="112" t="s">
+      <c r="D43" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="F43" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="H43" s="112" t="s">
+      <c r="G43" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="114" t="s">
+      <c r="I43" s="104" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="122" t="s">
+      <c r="B44" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="115" t="s">
+      <c r="C44" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="112" t="s">
+      <c r="D44" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="113" t="s">
+      <c r="E44" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="112" t="s">
+      <c r="F44" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="112" t="s">
+      <c r="G44" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="114" t="s">
+      <c r="I44" s="104" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="109" t="s">
+      <c r="C45" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="E45" s="109" t="s">
+      <c r="E45" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="110" t="s">
+      <c r="F45" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="G45" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" s="109" t="s">
+      <c r="G45" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="I45" s="116" t="s">
+      <c r="I45" s="106" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="111" t="s">
+      <c r="B46" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="D46" s="110" t="s">
+      <c r="D46" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="E46" s="109" t="s">
+      <c r="E46" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="110" t="s">
+      <c r="F46" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="G46" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="109" t="s">
+      <c r="G46" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H46" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="I46" s="116" t="s">
+      <c r="I46" s="106" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="111" t="s">
+      <c r="B47" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="109" t="s">
+      <c r="C47" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="D47" s="110" t="s">
+      <c r="D47" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="109" t="s">
+      <c r="E47" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="110" t="s">
+      <c r="F47" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="113" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="109" t="s">
+      <c r="G47" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="116" t="s">
+      <c r="I47" s="106" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="113" t="s">
         <v>225</v>
       </c>
-      <c r="C48" s="117" t="s">
+      <c r="C48" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="D48" s="118" t="s">
+      <c r="D48" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="E48" s="117" t="s">
+      <c r="E48" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="118" t="s">
+      <c r="F48" s="108" t="s">
         <v>231</v>
       </c>
-      <c r="G48" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="H48" s="117" t="s">
+      <c r="G48" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="I48" s="119" t="s">
+      <c r="I48" s="109" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3818,7 +3853,7 @@
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="K3:M4"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3828,7 +3863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A484A0-15AF-44A1-BE8B-ECFED38A64CF}">
   <dimension ref="C2:W24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:N15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3851,48 +3888,48 @@
   <sheetData>
     <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="135"/>
-      <c r="L3" s="139" t="s">
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="123"/>
+      <c r="L3" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="140"/>
-      <c r="N3" s="141"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="135"/>
       <c r="O3" s="17"/>
-      <c r="P3" s="127" t="s">
+      <c r="P3" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="129"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="117"/>
       <c r="S3" s="5"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="138"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="126"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="138"/>
       <c r="O4" s="17"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="132"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="120"/>
       <c r="S4" s="5"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
@@ -3923,13 +3960,13 @@
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="L5" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="76" t="s">
+      <c r="N5" s="140" t="s">
         <v>66</v>
       </c>
       <c r="O5" s="18"/>
@@ -3972,13 +4009,13 @@
       <c r="J6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="85" t="s">
+      <c r="M6" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="N6" s="77" t="s">
+      <c r="N6" s="143" t="s">
         <v>77</v>
       </c>
       <c r="O6" s="16"/>
@@ -4021,13 +4058,13 @@
       <c r="J7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="82" t="s">
+      <c r="L7" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="145" t="s">
         <v>165</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="146" t="s">
         <v>193</v>
       </c>
       <c r="O7" s="16"/>
@@ -4070,13 +4107,13 @@
       <c r="J8" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="145" t="s">
         <v>168</v>
       </c>
-      <c r="N8" s="78" t="s">
+      <c r="N8" s="146" t="s">
         <v>181</v>
       </c>
       <c r="O8" s="16"/>
@@ -4119,13 +4156,13 @@
       <c r="J9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="82" t="s">
+      <c r="L9" s="144" t="s">
         <v>169</v>
       </c>
-      <c r="M9" s="86" t="s">
+      <c r="M9" s="145" t="s">
         <v>170</v>
       </c>
-      <c r="N9" s="78" t="s">
+      <c r="N9" s="146" t="s">
         <v>182</v>
       </c>
       <c r="O9" s="16"/>
@@ -4165,13 +4202,13 @@
       <c r="J10" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="M10" s="86" t="s">
+      <c r="M10" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="N10" s="79" t="s">
+      <c r="N10" s="148" t="s">
         <v>183</v>
       </c>
       <c r="O10" s="12"/>
@@ -4211,13 +4248,13 @@
       <c r="J11" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="82" t="s">
+      <c r="L11" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="M11" s="86" t="s">
+      <c r="M11" s="145" t="s">
         <v>174</v>
       </c>
-      <c r="N11" s="79" t="s">
+      <c r="N11" s="148" t="s">
         <v>184</v>
       </c>
       <c r="O11" s="12"/>
@@ -4257,13 +4294,13 @@
       <c r="J12" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="82" t="s">
+      <c r="L12" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="M12" s="86" t="s">
+      <c r="M12" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="N12" s="79" t="s">
+      <c r="N12" s="148" t="s">
         <v>184</v>
       </c>
       <c r="O12" s="12"/>
@@ -4303,23 +4340,23 @@
       <c r="J13" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="82" t="s">
+      <c r="L13" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="86" t="s">
+      <c r="M13" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="N13" s="79" t="s">
+      <c r="N13" s="148" t="s">
         <v>185</v>
       </c>
       <c r="O13" s="12"/>
-      <c r="P13" s="124" t="s">
+      <c r="P13" s="114" t="s">
         <v>237</v>
       </c>
-      <c r="Q13" s="125" t="s">
+      <c r="Q13" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="R13" s="126" t="s">
+      <c r="R13" s="35" t="s">
         <v>96</v>
       </c>
       <c r="S13" s="8"/>
@@ -4349,13 +4386,13 @@
       <c r="J14" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="82" t="s">
+      <c r="L14" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="M14" s="86" t="s">
+      <c r="M14" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="N14" s="79" t="s">
+      <c r="N14" s="148" t="s">
         <v>186</v>
       </c>
       <c r="O14" s="12"/>
@@ -4395,13 +4432,13 @@
       <c r="J15" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="84" t="s">
+      <c r="L15" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="150" t="s">
         <v>180</v>
       </c>
-      <c r="N15" s="80" t="s">
+      <c r="N15" s="151" t="s">
         <v>187</v>
       </c>
       <c r="O15" s="12"/>
@@ -4682,7 +4719,7 @@
     <mergeCell ref="L3:N4"/>
     <mergeCell ref="P3:R4"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4692,7 +4729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C836A8B-9A57-4191-99E0-F532335A5C64}">
   <dimension ref="B2:Q21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4711,42 +4750,42 @@
   <sheetData>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="135"/>
-      <c r="K3" s="127" t="s">
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="123"/>
+      <c r="K3" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="128"/>
-      <c r="M3" s="129"/>
-      <c r="O3" s="127" t="s">
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
+      <c r="O3" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="129"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="117"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="136"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="138"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="132"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="132"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="126"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="120"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="120"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -5134,13 +5173,13 @@
       <c r="M13" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="O13" s="124" t="s">
+      <c r="O13" s="114" t="s">
         <v>237</v>
       </c>
-      <c r="P13" s="125" t="s">
+      <c r="P13" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="Q13" s="126" t="s">
+      <c r="Q13" s="35" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5175,7 +5214,7 @@
       <c r="L14" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="M14" s="79" t="s">
+      <c r="M14" s="76" t="s">
         <v>186</v>
       </c>
       <c r="O14" s="27" t="s">
@@ -5219,7 +5258,7 @@
       <c r="L15" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="M15" s="80" t="s">
+      <c r="M15" s="77" t="s">
         <v>187</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -5397,7 +5436,7 @@
     <mergeCell ref="K3:M4"/>
     <mergeCell ref="O3:Q4"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
